--- a/docs/teilnehmer.xlsx
+++ b/docs/teilnehmer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Veranstaltungen\Deutscher Tourismustag\DTT_2014_Freiburg\App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Veranstaltungen\Deutscher Tourismustag\DTT_2014_Freiburg\App MobileSeite\Teilnehmerliste\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="944">
   <si>
     <t>Titel</t>
   </si>
@@ -48,9 +48,6 @@
     <t/>
   </si>
   <si>
-    <t>Verbandsvositzender</t>
-  </si>
-  <si>
     <t>Sven</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Bad Urach</t>
   </si>
   <si>
-    <t>Vorsitzender der Geschäftsführung</t>
-  </si>
-  <si>
     <t>Kai</t>
   </si>
   <si>
@@ -384,18 +378,6 @@
     <t>Iris</t>
   </si>
   <si>
-    <t>Joch</t>
-  </si>
-  <si>
-    <t>LUKOM - Ludwigshafener Kongress-</t>
-  </si>
-  <si>
-    <t>und Marketing-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Ludwigshafen</t>
-  </si>
-  <si>
     <t>stellvertretender Geschäftsführer</t>
   </si>
   <si>
@@ -429,27 +411,6 @@
     <t>Löningen</t>
   </si>
   <si>
-    <t xml:space="preserve">Prof. Dr. </t>
-  </si>
-  <si>
-    <t>Univ.-Professor</t>
-  </si>
-  <si>
-    <t>Edgar</t>
-  </si>
-  <si>
-    <t>Kreilkamp</t>
-  </si>
-  <si>
-    <t>Leuphana Universität Lüneburg</t>
-  </si>
-  <si>
-    <t>Prof. Dr. E. Kreilkamp</t>
-  </si>
-  <si>
-    <t>Lüneburg</t>
-  </si>
-  <si>
     <t>Stefan</t>
   </si>
   <si>
@@ -477,9 +438,6 @@
     <t>München</t>
   </si>
   <si>
-    <t>Kunz</t>
-  </si>
-  <si>
     <t>KulTourStadt Gotha GmbH</t>
   </si>
   <si>
@@ -606,9 +564,6 @@
     <t>Bad Neustadt a. d. Sale</t>
   </si>
   <si>
-    <t>Beigeordneter</t>
-  </si>
-  <si>
     <t>Detlef</t>
   </si>
   <si>
@@ -645,9 +600,6 @@
     <t>Fichtelberg</t>
   </si>
   <si>
-    <t>GeschÃ¤ftsfÃ¼hrer</t>
-  </si>
-  <si>
     <t>Hartmut</t>
   </si>
   <si>
@@ -780,12 +732,6 @@
     <t>Bad Windsheim</t>
   </si>
   <si>
-    <t>Vanessa</t>
-  </si>
-  <si>
-    <t>Selent</t>
-  </si>
-  <si>
     <t>Martin</t>
   </si>
   <si>
@@ -828,12 +774,6 @@
     <t>Steinmann</t>
   </si>
   <si>
-    <t xml:space="preserve">Magdeburg marketing Kongress und Tourismus GmbH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ralf Steinmann </t>
-  </si>
-  <si>
     <t xml:space="preserve">Magdeburg </t>
   </si>
   <si>
@@ -954,25 +894,1963 @@
     <t>https://www.xing.com/profile/Susanne_Brennecke</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.xing.com/profile/Volker_BenderPrass </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.xing.com/profile/Heiko_Bruening </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.xing.com/profile/Armin_Dellnitz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.xing.com/profile/Horst_Graf2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.xing.com/profile/Matthias_Greilach </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.xing.com/profile/Dieter_Huette </t>
-  </si>
-  <si>
     <t>Xing</t>
+  </si>
+  <si>
+    <t>Vizepräsident BVCD</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Ahrens</t>
+  </si>
+  <si>
+    <t>Verbandsvositzender, Vorstandsmitglied des DTV</t>
+  </si>
+  <si>
+    <t>stellvertretender Leiter</t>
+  </si>
+  <si>
+    <t>Georg</t>
+  </si>
+  <si>
+    <t>Ansmann</t>
+  </si>
+  <si>
+    <t>Marketingleiterin</t>
+  </si>
+  <si>
+    <t>Andrea C.</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>Abteilungsleiterin Touristik</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Becker</t>
+  </si>
+  <si>
+    <t>Behrends</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Maike</t>
+  </si>
+  <si>
+    <t>Berndt</t>
+  </si>
+  <si>
+    <t>Wolfhardt</t>
+  </si>
+  <si>
+    <t>Bless</t>
+  </si>
+  <si>
+    <t>Vertriebsleiter</t>
+  </si>
+  <si>
+    <t>Andree</t>
+  </si>
+  <si>
+    <t>Bliefernich</t>
+  </si>
+  <si>
+    <t>Sales Manager International Tourism</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Bohny</t>
+  </si>
+  <si>
+    <t>1. Vorsitzender Landesverband der Campingplatzunternehmer in Baden-Württemberg e</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
+  <si>
+    <t>Bonath</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>Assistentin der Hauptgeschäftführung</t>
+  </si>
+  <si>
+    <t>Brink</t>
+  </si>
+  <si>
+    <t>Leiterin Tourismusverbund</t>
+  </si>
+  <si>
+    <t>Katrin</t>
+  </si>
+  <si>
+    <t>Brunken</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Buhl</t>
+  </si>
+  <si>
+    <t>Ministerialrat</t>
+  </si>
+  <si>
+    <t>Harald</t>
+  </si>
+  <si>
+    <t>Burkhardt</t>
+  </si>
+  <si>
+    <t>Projektleiter Fahrtziel Natur</t>
+  </si>
+  <si>
+    <t>Kathrin</t>
+  </si>
+  <si>
+    <t>Bürglen</t>
+  </si>
+  <si>
+    <t>Christel</t>
+  </si>
+  <si>
+    <t>Geschäftsführerin, Vorstandsmitglied des DTV</t>
+  </si>
+  <si>
+    <t>Yvonne</t>
+  </si>
+  <si>
+    <t>Coulin</t>
+  </si>
+  <si>
+    <t>Referentin für Tourismus</t>
+  </si>
+  <si>
+    <t>Jutta M.</t>
+  </si>
+  <si>
+    <t>Cremers</t>
+  </si>
+  <si>
+    <t>Dahms</t>
+  </si>
+  <si>
+    <t>Vorsitzender der Geschäftsführung, Vorstandsmitglied des DTV</t>
+  </si>
+  <si>
+    <t>Geschäftsführer, Vorstandsmitglied des DTV</t>
+  </si>
+  <si>
+    <t>stellv. Hauptgeschäftsführer</t>
+  </si>
+  <si>
+    <t>Dunkelberg</t>
+  </si>
+  <si>
+    <t>Dürr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketingleitung </t>
+  </si>
+  <si>
+    <t>Ina</t>
+  </si>
+  <si>
+    <t>Engelleitner</t>
+  </si>
+  <si>
+    <t>Leitung Presse und Öffentlichkeitsarbeit</t>
+  </si>
+  <si>
+    <t>Sibylle</t>
+  </si>
+  <si>
+    <t>Eßer</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Feda</t>
+  </si>
+  <si>
+    <t>Marketingleitung</t>
+  </si>
+  <si>
+    <t>Fischbach</t>
+  </si>
+  <si>
+    <t>Bernd</t>
+  </si>
+  <si>
+    <t>Fischer</t>
+  </si>
+  <si>
+    <t>Marc A.</t>
+  </si>
+  <si>
+    <t>Fleischhauer</t>
+  </si>
+  <si>
+    <t>Aufsichtsratmitglied</t>
+  </si>
+  <si>
+    <t>Rudolf</t>
+  </si>
+  <si>
+    <t>Forcher</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Franz</t>
+  </si>
+  <si>
+    <t>Fachbereichsleiter Kultur und Tourismus</t>
+  </si>
+  <si>
+    <t>Lars</t>
+  </si>
+  <si>
+    <t>Frick</t>
+  </si>
+  <si>
+    <t>Gastager</t>
+  </si>
+  <si>
+    <t>Gerlach</t>
+  </si>
+  <si>
+    <t>Leiter Tourismusmarketing &amp; Marketing Services</t>
+  </si>
+  <si>
+    <t>Gilbrich</t>
+  </si>
+  <si>
+    <t>Hauptgeschäftsführerin</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Gilles</t>
+  </si>
+  <si>
+    <t>Bereichsleiter Costumer Services&amp;Vertrieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthias </t>
+  </si>
+  <si>
+    <t>Goeze</t>
+  </si>
+  <si>
+    <t>Hans-Jürgen</t>
+  </si>
+  <si>
+    <t>Goller</t>
+  </si>
+  <si>
+    <t>Verkaufsleiterin</t>
+  </si>
+  <si>
+    <t>Gabriele</t>
+  </si>
+  <si>
+    <t>Golz</t>
+  </si>
+  <si>
+    <t>Oberbürgermeister</t>
+  </si>
+  <si>
+    <t>Melf</t>
+  </si>
+  <si>
+    <t>Grantz</t>
+  </si>
+  <si>
+    <t>Senior Berater</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Gries</t>
+  </si>
+  <si>
+    <t>Grönegres</t>
+  </si>
+  <si>
+    <t>Professor Dr.</t>
+  </si>
+  <si>
+    <t>Podiumsdisskusionsteilnehmer</t>
+  </si>
+  <si>
+    <t>Gössling</t>
+  </si>
+  <si>
+    <t>Leiterin Unternehmenskommunikation</t>
+  </si>
+  <si>
+    <t>Corina</t>
+  </si>
+  <si>
+    <t>Habben</t>
+  </si>
+  <si>
+    <t>Deutscher Bundestag</t>
+  </si>
+  <si>
+    <t>Haese</t>
+  </si>
+  <si>
+    <t>Landrat, Vorstandsmitglied des DTV</t>
+  </si>
+  <si>
+    <t>Harig</t>
+  </si>
+  <si>
+    <t>Klaus-Peter</t>
+  </si>
+  <si>
+    <t>Hausberg</t>
+  </si>
+  <si>
+    <t>Produktmanagement Veranstaltungen &amp; i-Marke</t>
+  </si>
+  <si>
+    <t>Silke</t>
+  </si>
+  <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Leitung Kooperationen &amp; Fachthemen</t>
+  </si>
+  <si>
+    <t>Hegemann</t>
+  </si>
+  <si>
+    <t>Henn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfgang </t>
+  </si>
+  <si>
+    <t>Heuschmid</t>
+  </si>
+  <si>
+    <t>Hießerich</t>
+  </si>
+  <si>
+    <t>Angestellte</t>
+  </si>
+  <si>
+    <t>Elisabeth</t>
+  </si>
+  <si>
+    <t>Hiltermann</t>
+  </si>
+  <si>
+    <t>Catrin</t>
+  </si>
+  <si>
+    <t>Homp</t>
+  </si>
+  <si>
+    <t>Angelika</t>
+  </si>
+  <si>
+    <t>Hüppe</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>Hövel</t>
+  </si>
+  <si>
+    <t>Sonja</t>
+  </si>
+  <si>
+    <t>Janssen</t>
+  </si>
+  <si>
+    <t>Tourist-Information Leiterin JenaKultur</t>
+  </si>
+  <si>
+    <t>Beate</t>
+  </si>
+  <si>
+    <t>Jauch</t>
+  </si>
+  <si>
+    <t>stellvertretender Vorsitzender</t>
+  </si>
+  <si>
+    <t>Raimund</t>
+  </si>
+  <si>
+    <t>Jennert</t>
+  </si>
+  <si>
+    <t>Vorstand Touristik</t>
+  </si>
+  <si>
+    <t>Joras</t>
+  </si>
+  <si>
+    <t>Projektkoordinatorin Digitale Wegeverwaltung</t>
+  </si>
+  <si>
+    <t>Liane</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Jäger</t>
+  </si>
+  <si>
+    <t>Eveline</t>
+  </si>
+  <si>
+    <t>Kampmann</t>
+  </si>
+  <si>
+    <t>Design &amp; Vertrieb</t>
+  </si>
+  <si>
+    <t>Leiterin der Abteilung Tourismus</t>
+  </si>
+  <si>
+    <t>Lising</t>
+  </si>
+  <si>
+    <t>Kessler</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Kiesbye</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>Referentin Wirtschaftsförderung</t>
+  </si>
+  <si>
+    <t>Brigitte</t>
+  </si>
+  <si>
+    <t>Kohlhaas</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Kohls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachbereichsleiter Tourismus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkhard </t>
+  </si>
+  <si>
+    <t>Kornherr</t>
+  </si>
+  <si>
+    <t>Krause</t>
+  </si>
+  <si>
+    <t>1. Vorsitzender</t>
+  </si>
+  <si>
+    <t>Lothar</t>
+  </si>
+  <si>
+    <t>Krebs</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Krull</t>
+  </si>
+  <si>
+    <t>Landrat / Vizepräsident des Deutschen Landkreistages</t>
+  </si>
+  <si>
+    <t>Kubendorff</t>
+  </si>
+  <si>
+    <t>Netzwerkpartner, Tourismuszukunft - Institut für eTourismus</t>
+  </si>
+  <si>
+    <t>Maximilian</t>
+  </si>
+  <si>
+    <t>Laborenz</t>
+  </si>
+  <si>
+    <t>Referatsleiter Tourismus</t>
+  </si>
+  <si>
+    <t>Gerd</t>
+  </si>
+  <si>
+    <t>Lange</t>
+  </si>
+  <si>
+    <t>Marktforschung/Nachhaltigkeit</t>
+  </si>
+  <si>
+    <t>Hilke</t>
+  </si>
+  <si>
+    <t>Langer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektmanagerin Tourismus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leiding  </t>
+  </si>
+  <si>
+    <t>Marketingleiterin JenaKultur</t>
+  </si>
+  <si>
+    <t>Liebold</t>
+  </si>
+  <si>
+    <t>Johannes</t>
+  </si>
+  <si>
+    <t>Lohmeyer</t>
+  </si>
+  <si>
+    <t>Assistent der Geschäftsleitung</t>
+  </si>
+  <si>
+    <t>Matz</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>Yann</t>
+  </si>
+  <si>
+    <t>Maurer</t>
+  </si>
+  <si>
+    <t>Geschäftsführung</t>
+  </si>
+  <si>
+    <t>Antje</t>
+  </si>
+  <si>
+    <t>Mein</t>
+  </si>
+  <si>
+    <t>Teamleiterin Touristinformation</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Meißner</t>
+  </si>
+  <si>
+    <t>Vertrieb- und Produktmanagerin</t>
+  </si>
+  <si>
+    <t>Manuela</t>
+  </si>
+  <si>
+    <t>Merkt</t>
+  </si>
+  <si>
+    <t>Referatsleiter</t>
+  </si>
+  <si>
+    <t>Meyer</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Mihlan</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Moderer</t>
+  </si>
+  <si>
+    <t>FUTOUR Südwest</t>
+  </si>
+  <si>
+    <t>Monath</t>
+  </si>
+  <si>
+    <t>Projektkoordinatorin</t>
+  </si>
+  <si>
+    <t>Annette</t>
+  </si>
+  <si>
+    <t>Morthorst</t>
+  </si>
+  <si>
+    <t>Mosbacher</t>
+  </si>
+  <si>
+    <t>Referentin Qualität</t>
+  </si>
+  <si>
+    <t>Cathleen</t>
+  </si>
+  <si>
+    <t>Nebrich</t>
+  </si>
+  <si>
+    <t>Touristinformation</t>
+  </si>
+  <si>
+    <t>Erna</t>
+  </si>
+  <si>
+    <t>Neumeyer</t>
+  </si>
+  <si>
+    <t>Leitung Fachbereich Unternehmensförderung</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Nitsche</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Nützel</t>
+  </si>
+  <si>
+    <t>Regierungsrätin</t>
+  </si>
+  <si>
+    <t>Anja</t>
+  </si>
+  <si>
+    <t>Opper</t>
+  </si>
+  <si>
+    <t>Leiter Touristische Services +Leistungsmanagement</t>
+  </si>
+  <si>
+    <t>Erwin</t>
+  </si>
+  <si>
+    <t>Pfeiffer</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Piroth-Bonn</t>
+  </si>
+  <si>
+    <t>Redakteurin</t>
+  </si>
+  <si>
+    <t>Sabine</t>
+  </si>
+  <si>
+    <t>Pracht</t>
+  </si>
+  <si>
+    <t>Veranstaltung / Marketing</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Prem</t>
+  </si>
+  <si>
+    <t>Onlinemanagement Sterneferien</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Rahde</t>
+  </si>
+  <si>
+    <t>Christoph</t>
+  </si>
+  <si>
+    <t>Rakel</t>
+  </si>
+  <si>
+    <t>Beigeordneter, Vorstandsmitglied des DTV</t>
+  </si>
+  <si>
+    <t>Tourismuspolitischer Sprecher</t>
+  </si>
+  <si>
+    <t>Rapp</t>
+  </si>
+  <si>
+    <t>stv. Geschäftsführer</t>
+  </si>
+  <si>
+    <t>Hans-Emmius</t>
+  </si>
+  <si>
+    <t>Rass</t>
+  </si>
+  <si>
+    <t>Rehse</t>
+  </si>
+  <si>
+    <t>Thorsten</t>
+  </si>
+  <si>
+    <t>Reich</t>
+  </si>
+  <si>
+    <t>Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Geschäftsführender Gesellschafter</t>
+  </si>
+  <si>
+    <t>Rein</t>
+  </si>
+  <si>
+    <t>Leiter der Tourist Info Aschau i.Chiemgau</t>
+  </si>
+  <si>
+    <t>Herbert</t>
+  </si>
+  <si>
+    <t>Reiter</t>
+  </si>
+  <si>
+    <t>PR Referentin</t>
+  </si>
+  <si>
+    <t>Renner</t>
+  </si>
+  <si>
+    <t>Carolin</t>
+  </si>
+  <si>
+    <t>Ruh</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>Rußig</t>
+  </si>
+  <si>
+    <t>Jochen</t>
+  </si>
+  <si>
+    <t>Sandner</t>
+  </si>
+  <si>
+    <t>Geschäftsführer, Vizepräsident des DTV</t>
+  </si>
+  <si>
+    <t>Günter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulrike </t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>Claudio</t>
+  </si>
+  <si>
+    <t>Schrock-Opitz</t>
+  </si>
+  <si>
+    <t>Verbandvorsteher</t>
+  </si>
+  <si>
+    <t>Schräer</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Schuler</t>
+  </si>
+  <si>
+    <t>Kurdirektor und Geschäftsführer</t>
+  </si>
+  <si>
+    <t>Schulze</t>
+  </si>
+  <si>
+    <t>Maik</t>
+  </si>
+  <si>
+    <t>Schwartau</t>
+  </si>
+  <si>
+    <t>Schwarz</t>
+  </si>
+  <si>
+    <t>Rolf</t>
+  </si>
+  <si>
+    <t>Seelige-Steinhoff</t>
+  </si>
+  <si>
+    <t>Vorstandmitlgied</t>
+  </si>
+  <si>
+    <t>Seitz</t>
+  </si>
+  <si>
+    <t>DTV-Prüfer</t>
+  </si>
+  <si>
+    <t>Seiz</t>
+  </si>
+  <si>
+    <t>Geschäftsführer, Vizepräsident DTV</t>
+  </si>
+  <si>
+    <t>Siemering</t>
+  </si>
+  <si>
+    <t>Erster Bürgermeister Gemeinde Aschau i.Chiemgau</t>
+  </si>
+  <si>
+    <t>Solnar</t>
+  </si>
+  <si>
+    <t>Josef</t>
+  </si>
+  <si>
+    <t>Sommer</t>
+  </si>
+  <si>
+    <t>Spettel</t>
+  </si>
+  <si>
+    <t>Roswitha</t>
+  </si>
+  <si>
+    <t>Still</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Stradinger</t>
+  </si>
+  <si>
+    <t>Marketing Director</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Sturzwage</t>
+  </si>
+  <si>
+    <t>Referentin Tourismus</t>
+  </si>
+  <si>
+    <t>Mandy</t>
+  </si>
+  <si>
+    <t>Tanneberg</t>
+  </si>
+  <si>
+    <t>Leiterin Touristinformation</t>
+  </si>
+  <si>
+    <t>Teisinger</t>
+  </si>
+  <si>
+    <t>Thiele</t>
+  </si>
+  <si>
+    <t>Leiterin der Touristinformation Zerbst/Anhalt</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>Tiepelmann</t>
+  </si>
+  <si>
+    <t>Vorstandsmitglied</t>
+  </si>
+  <si>
+    <t>Ullrich</t>
+  </si>
+  <si>
+    <t>Dietrich</t>
+  </si>
+  <si>
+    <t>von Albedyll</t>
+  </si>
+  <si>
+    <t>von Aschwege</t>
+  </si>
+  <si>
+    <t>Stellv. Vorsitzender</t>
+  </si>
+  <si>
+    <t>Wolther</t>
+  </si>
+  <si>
+    <t>von Kieseritzky</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Klassifizierungsmanagement</t>
+  </si>
+  <si>
+    <t>Warszinski</t>
+  </si>
+  <si>
+    <t>Verwaltung</t>
+  </si>
+  <si>
+    <t>Ronja</t>
+  </si>
+  <si>
+    <t>Wehrle</t>
+  </si>
+  <si>
+    <t>Stellv. Geschäftsführerin</t>
+  </si>
+  <si>
+    <t>Wendling</t>
+  </si>
+  <si>
+    <t>Selbständige Beraterin</t>
+  </si>
+  <si>
+    <t>Sybille</t>
+  </si>
+  <si>
+    <t>Wiedenmann</t>
+  </si>
+  <si>
+    <t>Tourismusreferentin</t>
+  </si>
+  <si>
+    <t>Wiesner</t>
+  </si>
+  <si>
+    <t>Jörn</t>
+  </si>
+  <si>
+    <t>Winkhaus</t>
+  </si>
+  <si>
+    <t>Winkhaus-Robert</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Wittke</t>
+  </si>
+  <si>
+    <t>Wittpohl</t>
+  </si>
+  <si>
+    <t>International Tourism Management</t>
+  </si>
+  <si>
+    <t>Wollesen</t>
+  </si>
+  <si>
+    <t>Leiterin Tourismusförderung</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Ziesing</t>
+  </si>
+  <si>
+    <t>Vorsitzender, Vizepräsident des DTV</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Peter_Ahrens9</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/andreaC_bayer</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Sandra_Becker22</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Volker_BenderPrass</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Maike_Berndt</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Isabel_Bohny</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Christina_Brink2</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Katrin_Brunken</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Heiko_Bruening</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Benjamin_Buhl2</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Armin_Dellnitz</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Dirk_Dunkelberg</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Andreas_Duerr19</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Bjoern_Eichner</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/MarcA_Fleischhauer</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Markus_Franz21</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Lars_Frick3</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Andrea_Gastager</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Matthias_Gilbrich</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Claudia_Gilles2</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Horst_Graf2</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Birgit_Grauvogel</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Matthias_Greilach</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Sebastian_Gries</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Baerbel_Groenegres</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Stefan_Goessling</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Corina_Habben</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Michael_Harig</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/KlausPeter_Hausberg</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Silke_Heck</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Iris_Hegemann2</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Kay_Hellwig</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Matthias_Hiesserich</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Dieter_Huette</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Klaus_Hoevel</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Juergen_Jankowiak</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Sonja_Janssen6</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Beate_Jauch</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Raimund_Jennert</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Liane_Jordan</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Juergen_Kampmann4</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/JanF_Kobernuss</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Wilhelm_Koormann2</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Maximilian_Laborenz</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Johannes_Lohmeyer</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Christian_Loth4</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Wilhelm_Loth</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Susanne_Loebkens</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Maria_Meissner14</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Roger_Merk</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Dirk_Monath</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Bernhard_Mosandl</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Bernhard_Mosbacher</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Cathleen_Nebrich</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Frank_Oette</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Michael_Pfaff3</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/DanielaMaria_PirothBonn</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Sabine_Pracht</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Lisa_Prem</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Ferdinand_Reb</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Birgit_Rehse</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/thorsten_reich</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Hartmut_Rein</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Anja_Renner5</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Birgit_Rudolph4</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Thorsten_Rudolph9</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Wolfgang_Ruehle2</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Schmidt_Gerald</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Patrick_Schreib2</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/ClaudioP_SchrockOpitz</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Alexander_Schuler</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Claudia_Schwarz45</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Peter_Siemering</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Martin_Spantig</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Ralf_Steinmann3</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Christiane_Strohschneider</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Magret_Sutorius</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Sabine_Teisinger</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Sabine_Thiele7</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Christina_Ullmann9</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Alexandra_Ramin</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Gabriele_Warszinski</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Dirk_Weidemann5</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Sybille_Wiedenmann</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Uwe_Winter12</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Anja_Wollesen</t>
+  </si>
+  <si>
+    <t>BVCD</t>
+  </si>
+  <si>
+    <t>Bundesverband der Campingwirtschaft in Deutschland</t>
+  </si>
+  <si>
+    <t>e.V.</t>
+  </si>
+  <si>
+    <t>Landeshauptstadt München Referat für Arbeit und Wirtschaft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tourismus-Agentur </t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein GmbH</t>
+  </si>
+  <si>
+    <t>ADAC Mittelrhein e.V.</t>
+  </si>
+  <si>
+    <t>neusta eTourism GmbH</t>
+  </si>
+  <si>
+    <t>Markt und Trend GmbH</t>
+  </si>
+  <si>
+    <t>Wolfhardt Bless</t>
+  </si>
+  <si>
+    <t>Ostfriesland Tourismus GmbH</t>
+  </si>
+  <si>
+    <t>Europa-Park GmbH &amp; Co Mack KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	Landesverband der Campingplatzunternehmer in Baden-Württemberg e.V. </t>
+  </si>
+  <si>
+    <t>Tourismus Marketing GmbH Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Deutscher Tourismusverband e.V.</t>
+  </si>
+  <si>
+    <t>Tourismusverbund Störtebekerland</t>
+  </si>
+  <si>
+    <t>netzvitamine GmbH</t>
+  </si>
+  <si>
+    <t>Ministerium für Ländlichen Raum und Verbraucherschutz</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Referat Tourismus</t>
+  </si>
+  <si>
+    <t>Bamberg Tourismus &amp; Kongress Service</t>
+  </si>
+  <si>
+    <t>Congress- und Tourismus-Zentrale Nürnberg</t>
+  </si>
+  <si>
+    <t>Verkehrsverein Nürnberg e.V.</t>
+  </si>
+  <si>
+    <t>Ministerium für Wirtschaft und Europaangelegenheiten</t>
+  </si>
+  <si>
+    <t>Land Brandenburg</t>
+  </si>
+  <si>
+    <t>Eigentum und Freizeit Verwaltungs GmbH</t>
+  </si>
+  <si>
+    <t>Ratswaage Magdeburg KG</t>
+  </si>
+  <si>
+    <t>Touristikgemeinschaft Hohenlohe e.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wirtschaftsbetriebe Borkum </t>
+  </si>
+  <si>
+    <t>Deutsche Bundesgartenschau-Gesellschaft mbH (DBG)</t>
+  </si>
+  <si>
+    <t>Tourismus + Congress GmbH Frankfurt am Main</t>
+  </si>
+  <si>
+    <t>Sauerland-Tourismus e.V.</t>
+  </si>
+  <si>
+    <t>Tourismusverband Mecklenburg-Vorpommern e.V.</t>
+  </si>
+  <si>
+    <t>DP Mobility GmbH (ADAC Postbus)</t>
+  </si>
+  <si>
+    <t>Frankenwald Tourismus Service Center</t>
+  </si>
+  <si>
+    <t>Stadt Lörrach</t>
+  </si>
+  <si>
+    <t>Luftkurort Wiesmoor Touristik GmbH</t>
+  </si>
+  <si>
+    <t>Dresden Marketing GmbH (DMG)</t>
+  </si>
+  <si>
+    <t>Berlin Tourismus &amp; Kongress GmbH</t>
+  </si>
+  <si>
+    <t>Tourismus Marketing Gesellschaft Sachsen mbH</t>
+  </si>
+  <si>
+    <t>Herrn Hans-Jürgen Goller</t>
+  </si>
+  <si>
+    <t>Erlebnis Bremerhaven Gesellschaft für Touristik, Marketing und Veranst</t>
+  </si>
+  <si>
+    <t>Kohl &amp; Partner STUTTGART</t>
+  </si>
+  <si>
+    <t>Thüringer Tourismus GmbH</t>
+  </si>
+  <si>
+    <t>Stefan Gössling</t>
+  </si>
+  <si>
+    <t>Aktiengesellschaft EMS</t>
+  </si>
+  <si>
+    <t>Landestourismusverband Sachsen e.V.</t>
+  </si>
+  <si>
+    <t>FERIENSTRASSEN.INFO / DEMS GmbH</t>
+  </si>
+  <si>
+    <t>Deutscher Tourismusverband Service GmbH</t>
+  </si>
+  <si>
+    <t>Saarpfalz-Touristik</t>
+  </si>
+  <si>
+    <t>HPC Heuschmid &amp; Partner Consult</t>
+  </si>
+  <si>
+    <t>Saarschleife Touristik GmbH</t>
+  </si>
+  <si>
+    <t>Kohl &amp; Partner Tourismusberatung München GmbH</t>
+  </si>
+  <si>
+    <t>Tourismusverband Schleswig-Holstein e.V.</t>
+  </si>
+  <si>
+    <t>Kassel Marketing GmbH</t>
+  </si>
+  <si>
+    <t>Marburg Tourismus und Marketing GmbH</t>
+  </si>
+  <si>
+    <t>JenaKultur</t>
+  </si>
+  <si>
+    <t>Tourist-Information/ Marketing</t>
+  </si>
+  <si>
+    <t>Allgemeiner Deutscher Fahrrad-Club e.V.</t>
+  </si>
+  <si>
+    <t>Bundesgeschäftsstelle</t>
+  </si>
+  <si>
+    <t>Deutscher Wanderverband</t>
+  </si>
+  <si>
+    <t>Bundesverband der Gästeführer in Deutschland e.V.</t>
+  </si>
+  <si>
+    <t>Kampmann GmbH - International</t>
+  </si>
+  <si>
+    <t>Botschaft des Großherzogtums Luxemburg</t>
+  </si>
+  <si>
+    <t>Abteilung Tourismus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erlebnis Bremerhaven, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesellschaft für Touristik, </t>
+  </si>
+  <si>
+    <t>Marketing und Veranstaltungen mbH</t>
+  </si>
+  <si>
+    <t>Saarschleifenland Tourismus GmbH</t>
+  </si>
+  <si>
+    <t>Kreisverwaltung Rhein-Sieg-Kreis Wirtschaftsförderung</t>
+  </si>
+  <si>
+    <t>Kurverwaltung Nordseeheilbad Wangerooge</t>
+  </si>
+  <si>
+    <t>Main-Kinzig-Kreis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amt für Wirtschaft und Arbeit, Kultur, Sport </t>
+  </si>
+  <si>
+    <t>und Tourismus</t>
+  </si>
+  <si>
+    <t>landestourismusverband Brandenburg e.V.</t>
+  </si>
+  <si>
+    <t>Bundesverband Kanu e.V.</t>
+  </si>
+  <si>
+    <t>Schwarzwald Tourismus GmbH</t>
+  </si>
+  <si>
+    <t>Kreis Steinfurt</t>
+  </si>
+  <si>
+    <t>Maximilian Laborenz</t>
+  </si>
+  <si>
+    <t>Ministerium für Wirtschaft, Bau und Tourismus MV</t>
+  </si>
+  <si>
+    <t>Investitions- und Marketinggesellschaft</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt mbH</t>
+  </si>
+  <si>
+    <t>Tourismusverband Dresden e.V.</t>
+  </si>
+  <si>
+    <t>Staatsbad Norderney GmbH</t>
+  </si>
+  <si>
+    <t>Kur und Bäder GmbH</t>
+  </si>
+  <si>
+    <t>Bad Krozingen</t>
+  </si>
+  <si>
+    <t>Regiondo GmbH</t>
+  </si>
+  <si>
+    <t>Yann Maurer</t>
+  </si>
+  <si>
+    <t>Gäste von Morgen - Familientourismusberatung</t>
+  </si>
+  <si>
+    <t>Land in Sicht AG</t>
+  </si>
+  <si>
+    <t>Seestadt Bremerhaven</t>
+  </si>
+  <si>
+    <t>Referat für Wirtschaft</t>
+  </si>
+  <si>
+    <t>Magdeburger Tourismusverband Elbe-Börde-Heide e.V.</t>
+  </si>
+  <si>
+    <t>mainzplus CITYMARKETING GmbH</t>
+  </si>
+  <si>
+    <t>FUTOUR Südwest - Dirk Monath</t>
+  </si>
+  <si>
+    <t>Umwelt-, Tourismus- und Regionalberatung</t>
+  </si>
+  <si>
+    <t>Erholungsgebiet Hasetal</t>
+  </si>
+  <si>
+    <t>Touristik Bad Wildbad GmbH</t>
+  </si>
+  <si>
+    <t>AIB-KUR GmbH &amp; Co.KG</t>
+  </si>
+  <si>
+    <t>Industrie- und Handelskammer Potsdam (IHK)</t>
+  </si>
+  <si>
+    <t>Fachbereich Existenzgründung und</t>
+  </si>
+  <si>
+    <t>Unternehmensförderung</t>
+  </si>
+  <si>
+    <t>Gebäude 12</t>
+  </si>
+  <si>
+    <t>ADAC e.V.</t>
+  </si>
+  <si>
+    <t>piroth.kommunikation GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>FVW / TravelTalk</t>
+  </si>
+  <si>
+    <t>SECRA GmbH</t>
+  </si>
+  <si>
+    <t>Agentur für Kommunikation und Software</t>
+  </si>
+  <si>
+    <t>Landtag von Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bad Bevensen Marketing GmbH</t>
+  </si>
+  <si>
+    <t>BTE Tourismus- und Regionalberatung</t>
+  </si>
+  <si>
+    <t>Tourist Information Aschau i.Ch.</t>
+  </si>
+  <si>
+    <t>Hochschwarzwald Tourismus GmbH</t>
+  </si>
+  <si>
+    <t>TourismusMarketing Niedersachsen GmbH</t>
+  </si>
+  <si>
+    <t>Tourismusverband Seenland Oder-Spree e.V.</t>
+  </si>
+  <si>
+    <t>Deutsche Bundesgartenschau-Gesellschaft mbH</t>
+  </si>
+  <si>
+    <t>Herzogtum Lauenburg Marketing &amp; Service GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elztal &amp; Simonswäldertal </t>
+  </si>
+  <si>
+    <t>Tourismus GmbH &amp; Co.KG</t>
+  </si>
+  <si>
+    <t>Wirtschaftsbetriebe der Stadt Norden GmbH</t>
+  </si>
+  <si>
+    <t>Kurverwaltung Norddeich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erholungsgebiet Hasetal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasetal Touristik GmbH </t>
+  </si>
+  <si>
+    <t>Bad Zwischenahner Touristik GmbH</t>
+  </si>
+  <si>
+    <t>Tourismus-Service Fehmarn</t>
+  </si>
+  <si>
+    <t>Romantischer Rhein Tourismus GmbH</t>
+  </si>
+  <si>
+    <t>Frau Claudia Schwarz</t>
+  </si>
+  <si>
+    <t>Seetel Hotel GmbH &amp; Co. Betriebs-KG</t>
+  </si>
+  <si>
+    <t>Vorstand Touristik ADAC Südbaden</t>
+  </si>
+  <si>
+    <t>Kohl &amp; Partner Stuttgart</t>
+  </si>
+  <si>
+    <t>BTZ Bremer Touristik-Zentrale</t>
+  </si>
+  <si>
+    <t>Gesellschaft für Marketing und Service mbH</t>
+  </si>
+  <si>
+    <t>Kampenwandstr. 38</t>
+  </si>
+  <si>
+    <t>KölnTourismus GmbH</t>
+  </si>
+  <si>
+    <t>Kur und Bäder GmbH Bad Dürrheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magdeburg Marketing Kongress und Tourismus GmbH </t>
+  </si>
+  <si>
+    <t>Touristikverband Siegerland-Wittgenstein e.V.</t>
+  </si>
+  <si>
+    <t>IHK Magdeburg</t>
+  </si>
+  <si>
+    <t>Regensburg Tourismus GmbH</t>
+  </si>
+  <si>
+    <t>Bundesverband forum anders reisen e.V.</t>
+  </si>
+  <si>
+    <t>Touristinformation Stadt Zerbst/Anhalt</t>
+  </si>
+  <si>
+    <t>Hamburg Tourismus GmbH</t>
+  </si>
+  <si>
+    <t>Zeller Land Tourismus GmbH</t>
+  </si>
+  <si>
+    <t>ECOCAMPING e.V.</t>
+  </si>
+  <si>
+    <t>Tourist-Information Emmendingen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz Tourismus GmbH</t>
+  </si>
+  <si>
+    <t>TFK - Marketing &amp; Projektentwicklung</t>
+  </si>
+  <si>
+    <t>IHK Halle-Dessau</t>
+  </si>
+  <si>
+    <t>Geschäftsfeld Starthilfe und Unternehmensförderung</t>
+  </si>
+  <si>
+    <t>Hunsrück-Touristik GmbH</t>
+  </si>
+  <si>
+    <t>Mosellandtouristik GmbH</t>
+  </si>
+  <si>
+    <t>Kur- und Bäder GmbH Bad Dürrheim</t>
+  </si>
+  <si>
+    <t>Ahrtal Tourismus Bad Neuenahr-Ahrweiler e.V.</t>
+  </si>
+  <si>
+    <t>Fachhochschule Westküste</t>
+  </si>
+  <si>
+    <t>Leer</t>
+  </si>
+  <si>
+    <t>Neumünster</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Oberharmersbach</t>
+  </si>
+  <si>
+    <t>Hage</t>
+  </si>
+  <si>
+    <t>Bamberg</t>
+  </si>
+  <si>
+    <t>Nürnberg</t>
+  </si>
+  <si>
+    <t>Künzelsau</t>
+  </si>
+  <si>
+    <t>Borkum</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>Schmallenberg</t>
+  </si>
+  <si>
+    <t>Rostock</t>
+  </si>
+  <si>
+    <t>Bad Waldsee</t>
+  </si>
+  <si>
+    <t>Kronach</t>
+  </si>
+  <si>
+    <t>Lörrach</t>
+  </si>
+  <si>
+    <t>Wiesmoor</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>Bremerhaven</t>
+  </si>
+  <si>
+    <t>Schwäbisch Gmünd</t>
+  </si>
+  <si>
+    <t>Erfurt</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Emden</t>
+  </si>
+  <si>
+    <t>Blieskastel</t>
+  </si>
+  <si>
+    <t>Mettlach</t>
+  </si>
+  <si>
+    <t>Kassel</t>
+  </si>
+  <si>
+    <t>Jena</t>
+  </si>
+  <si>
+    <t>Weißenburg</t>
+  </si>
+  <si>
+    <t>Bielefeld</t>
+  </si>
+  <si>
+    <t>Merzig</t>
+  </si>
+  <si>
+    <t>Siegburg</t>
+  </si>
+  <si>
+    <t>Wangerooge</t>
+  </si>
+  <si>
+    <t>Gelnhausen</t>
+  </si>
+  <si>
+    <t>Neuruppin</t>
+  </si>
+  <si>
+    <t>Greven</t>
+  </si>
+  <si>
+    <t>Steinfurt</t>
+  </si>
+  <si>
+    <t>Kaiserslautern</t>
+  </si>
+  <si>
+    <t>Schwerin</t>
+  </si>
+  <si>
+    <t>Norderney</t>
+  </si>
+  <si>
+    <t>Sulzburg</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Freiburg im Breisgau</t>
+  </si>
+  <si>
+    <t>Bad Wildbad</t>
+  </si>
+  <si>
+    <t>Bad Aibling</t>
+  </si>
+  <si>
+    <t>Pullach i. Isartal</t>
+  </si>
+  <si>
+    <t>Neustadt/Sierksdorf</t>
+  </si>
+  <si>
+    <t>Bad Bevensen</t>
+  </si>
+  <si>
+    <t>Aschau i.Chiemgau</t>
+  </si>
+  <si>
+    <t>Hinterzarten</t>
+  </si>
+  <si>
+    <t>Bad Saarow</t>
+  </si>
+  <si>
+    <t>Ratzeburg</t>
+  </si>
+  <si>
+    <t>Gutach im Breisgau</t>
+  </si>
+  <si>
+    <t>Norden-Norddeich</t>
+  </si>
+  <si>
+    <t>Bad Zwischenahn</t>
+  </si>
+  <si>
+    <t>Fehmarn</t>
+  </si>
+  <si>
+    <t>St. Goarshausen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seebad Heringsdorf/OT Ahlbeck  </t>
+  </si>
+  <si>
+    <t>Niedereschach</t>
+  </si>
+  <si>
+    <t>Waldstetten</t>
+  </si>
+  <si>
+    <t>Bad Dürrheim</t>
+  </si>
+  <si>
+    <t>Siegen</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>Zerbst/Anhalt</t>
+  </si>
+  <si>
+    <t>Zell (Mosel)</t>
+  </si>
+  <si>
+    <t>Konstanz</t>
+  </si>
+  <si>
+    <t>Emmendingen</t>
+  </si>
+  <si>
+    <t>Halle</t>
+  </si>
+  <si>
+    <t>Hahn-Flughafen</t>
+  </si>
+  <si>
+    <t>Bernkastel-Kues</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bad Dürrheim</t>
+  </si>
+  <si>
+    <t>Bad Neuenahr-Ahrweiler</t>
+  </si>
+  <si>
+    <t>Heide</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/profile/Dietrich_vonAlbedyll</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +3177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1324,7 +3202,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1344,42 +3222,45 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>294</v>
+      </c>
+      <c r="E2" t="s">
+        <v>632</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>718</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>720</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -1388,7 +3269,7 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1396,19 +3277,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>721</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -1417,27 +3295,24 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -1446,7 +3321,7 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1454,28 +3329,28 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
+      </c>
+      <c r="E6" t="s">
+        <v>633</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>722</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>723</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,28 +3358,28 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="E7" t="s">
+        <v>634</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>724</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1512,19 +3387,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
       <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>725</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -1533,7 +3405,7 @@
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1541,19 +3413,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>635</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -1562,7 +3434,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1570,16 +3442,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>308</v>
+      </c>
+      <c r="E10" t="s">
+        <v>636</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -1588,7 +3463,7 @@
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1596,45 +3471,42 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>726</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>727</v>
       </c>
       <c r="H11" t="s">
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>873</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>312</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>313</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>728</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -1643,7 +3515,7 @@
         <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1651,16 +3523,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>316</v>
+      </c>
+      <c r="E13" t="s">
+        <v>637</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>729</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -1669,7 +3544,7 @@
         <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>874</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1677,16 +3552,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>730</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -1695,7 +3570,7 @@
         <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1703,16 +3578,16 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -1721,7 +3596,7 @@
         <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1729,16 +3604,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>731</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -1747,7 +3622,7 @@
         <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1755,16 +3630,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>290</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -1773,7 +3651,7 @@
         <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1781,16 +3659,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>322</v>
+      </c>
+      <c r="E18" t="s">
+        <v>638</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>732</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -1799,7 +3680,7 @@
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1807,28 +3688,28 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>323</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>324</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
+      </c>
+      <c r="E19" t="s">
+        <v>639</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>733</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>876</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1836,25 +3717,28 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>640</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1862,19 +3746,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>326</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
+      </c>
+      <c r="E21" t="s">
+        <v>641</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>734</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -1883,7 +3767,7 @@
         <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1891,51 +3775,51 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>330</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>735</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>736</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>737</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>331</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>332</v>
       </c>
       <c r="D23" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
         <v>103</v>
-      </c>
-      <c r="F23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1943,16 +3827,16 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1961,7 +3845,7 @@
         <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1969,28 +3853,25 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
+        <v>334</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>738</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>877</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1998,19 +3879,16 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>316</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -2019,7 +3897,7 @@
         <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2027,25 +3905,25 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>336</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>337</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>739</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>740</v>
       </c>
       <c r="H27" t="s">
         <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>878</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2053,25 +3931,25 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>340</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>741</v>
       </c>
       <c r="G28" t="s">
-        <v>123</v>
+        <v>742</v>
       </c>
       <c r="H28" t="s">
         <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2079,25 +3957,25 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>743</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>744</v>
       </c>
       <c r="H29" t="s">
         <v>8</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2105,16 +3983,16 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -2123,7 +4001,7 @@
         <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2131,16 +4009,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>343</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>642</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -2149,33 +4030,36 @@
         <v>8</v>
       </c>
       <c r="I31" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>345</v>
+      </c>
+      <c r="E32" t="s">
+        <v>643</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>732</v>
       </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="H32" t="s">
         <v>8</v>
       </c>
       <c r="I32" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2183,16 +4067,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>346</v>
+      </c>
+      <c r="E33" t="s">
+        <v>644</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>745</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -2201,24 +4088,24 @@
         <v>8</v>
       </c>
       <c r="I33" t="s">
-        <v>146</v>
+        <v>879</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>335</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -2227,7 +4114,7 @@
         <v>8</v>
       </c>
       <c r="I34" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2235,16 +4122,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -2253,7 +4143,7 @@
         <v>8</v>
       </c>
       <c r="I35" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2261,16 +4151,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>645</v>
       </c>
       <c r="F36" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
@@ -2279,7 +4172,7 @@
         <v>8</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2287,16 +4180,16 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>348</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
+        <v>746</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -2305,24 +4198,24 @@
         <v>8</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>880</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>352</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
+        <v>747</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -2331,7 +4224,7 @@
         <v>8</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2339,16 +4232,16 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>343</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>748</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
@@ -2357,7 +4250,7 @@
         <v>8</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2365,16 +4258,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
@@ -2383,24 +4276,24 @@
         <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>356</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>749</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -2409,7 +4302,7 @@
         <v>8</v>
       </c>
       <c r="I41" t="s">
-        <v>174</v>
+        <v>882</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2417,16 +4310,16 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>357</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>358</v>
       </c>
       <c r="F42" t="s">
-        <v>177</v>
+        <v>750</v>
       </c>
       <c r="G42" t="s">
         <v>8</v>
@@ -2435,7 +4328,7 @@
         <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>178</v>
+        <v>883</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2443,42 +4336,45 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>359</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>360</v>
+      </c>
+      <c r="E43" t="s">
+        <v>646</v>
       </c>
       <c r="F43" t="s">
-        <v>182</v>
+        <v>751</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="H43" t="s">
         <v>8</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>361</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>362</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="F44" t="s">
-        <v>186</v>
+        <v>731</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
@@ -2487,7 +4383,7 @@
         <v>8</v>
       </c>
       <c r="I44" t="s">
-        <v>187</v>
+        <v>884</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2495,16 +4391,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>364</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>365</v>
+      </c>
+      <c r="E45" t="s">
+        <v>647</v>
       </c>
       <c r="F45" t="s">
-        <v>190</v>
+        <v>752</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -2513,7 +4412,7 @@
         <v>8</v>
       </c>
       <c r="I45" t="s">
-        <v>191</v>
+        <v>885</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2521,16 +4420,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>366</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>367</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>368</v>
+      </c>
+      <c r="E46" t="s">
+        <v>648</v>
       </c>
       <c r="F46" t="s">
-        <v>193</v>
+        <v>753</v>
       </c>
       <c r="G46" t="s">
         <v>8</v>
@@ -2539,7 +4441,7 @@
         <v>8</v>
       </c>
       <c r="I46" t="s">
-        <v>194</v>
+        <v>886</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2547,16 +4449,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
         <v>8</v>
@@ -2565,7 +4467,7 @@
         <v>8</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2573,25 +4475,28 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>201</v>
+        <v>369</v>
+      </c>
+      <c r="E48" t="s">
+        <v>649</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
+        <v>722</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>723</v>
       </c>
       <c r="H48" t="s">
         <v>8</v>
       </c>
       <c r="I48" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2599,16 +4504,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -2617,7 +4525,7 @@
         <v>8</v>
       </c>
       <c r="I49" t="s">
-        <v>207</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2625,16 +4533,16 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="F50" t="s">
-        <v>211</v>
+        <v>754</v>
       </c>
       <c r="G50" t="s">
         <v>8</v>
@@ -2643,7 +4551,7 @@
         <v>8</v>
       </c>
       <c r="I50" t="s">
-        <v>212</v>
+        <v>887</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2651,16 +4559,16 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
         <v>8</v>
@@ -2669,7 +4577,7 @@
         <v>8</v>
       </c>
       <c r="I51" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2677,16 +4585,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>371</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>372</v>
+      </c>
+      <c r="E52" t="s">
+        <v>650</v>
       </c>
       <c r="F52" t="s">
-        <v>218</v>
+        <v>755</v>
       </c>
       <c r="G52" t="s">
         <v>8</v>
@@ -2695,24 +4606,27 @@
         <v>8</v>
       </c>
       <c r="I52" t="s">
-        <v>219</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>373</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>374</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
+        <v>375</v>
+      </c>
+      <c r="E53" t="s">
+        <v>651</v>
       </c>
       <c r="F53" t="s">
-        <v>223</v>
+        <v>732</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -2721,7 +4635,7 @@
         <v>8</v>
       </c>
       <c r="I53" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2729,16 +4643,16 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>376</v>
       </c>
       <c r="C54" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="D54" t="s">
-        <v>227</v>
+        <v>378</v>
       </c>
       <c r="F54" t="s">
-        <v>170</v>
+        <v>756</v>
       </c>
       <c r="G54" t="s">
         <v>8</v>
@@ -2747,7 +4661,7 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2755,25 +4669,25 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>379</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>380</v>
       </c>
       <c r="F55" t="s">
-        <v>230</v>
+        <v>757</v>
       </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>758</v>
       </c>
       <c r="H55" t="s">
         <v>8</v>
       </c>
       <c r="I55" t="s">
-        <v>231</v>
+        <v>888</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2781,25 +4695,25 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>381</v>
       </c>
       <c r="C56" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56" t="s">
+        <v>383</v>
+      </c>
+      <c r="F56" t="s">
+        <v>743</v>
+      </c>
+      <c r="G56" t="s">
+        <v>744</v>
+      </c>
+      <c r="H56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" t="s">
         <v>233</v>
-      </c>
-      <c r="D56" t="s">
-        <v>234</v>
-      </c>
-      <c r="F56" t="s">
-        <v>235</v>
-      </c>
-      <c r="G56" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2807,25 +4721,28 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>84</v>
+      </c>
+      <c r="E57" t="s">
+        <v>652</v>
       </c>
       <c r="F57" t="s">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s">
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2833,16 +4750,16 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>384</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>385</v>
       </c>
       <c r="D58" t="s">
-        <v>243</v>
+        <v>386</v>
       </c>
       <c r="F58" t="s">
-        <v>244</v>
+        <v>759</v>
       </c>
       <c r="G58" t="s">
         <v>8</v>
@@ -2851,7 +4768,7 @@
         <v>8</v>
       </c>
       <c r="I58" t="s">
-        <v>245</v>
+        <v>889</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2859,16 +4776,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>335</v>
       </c>
       <c r="C59" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>247</v>
+        <v>88</v>
+      </c>
+      <c r="E59" t="s">
+        <v>653</v>
       </c>
       <c r="F59" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
         <v>8</v>
@@ -2877,7 +4797,7 @@
         <v>8</v>
       </c>
       <c r="I59" t="s">
-        <v>249</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2885,16 +4805,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>92</v>
+      </c>
+      <c r="E60" t="s">
+        <v>654</v>
       </c>
       <c r="F60" t="s">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s">
         <v>8</v>
@@ -2903,7 +4826,7 @@
         <v>8</v>
       </c>
       <c r="I60" t="s">
-        <v>252</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2911,16 +4834,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>387</v>
       </c>
       <c r="C61" t="s">
-        <v>253</v>
+        <v>388</v>
       </c>
       <c r="D61" t="s">
-        <v>254</v>
+        <v>389</v>
+      </c>
+      <c r="E61" t="s">
+        <v>655</v>
       </c>
       <c r="F61" t="s">
-        <v>186</v>
+        <v>760</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -2929,24 +4855,27 @@
         <v>8</v>
       </c>
       <c r="I61" t="s">
-        <v>187</v>
+        <v>890</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>390</v>
+      </c>
+      <c r="E62" t="s">
+        <v>656</v>
       </c>
       <c r="F62" t="s">
-        <v>257</v>
+        <v>761</v>
       </c>
       <c r="G62" t="s">
         <v>8</v>
@@ -2955,7 +4884,7 @@
         <v>8</v>
       </c>
       <c r="I62" t="s">
-        <v>151</v>
+        <v>891</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2963,16 +4892,16 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="F63" t="s">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="G63" t="s">
         <v>8</v>
@@ -2981,24 +4910,27 @@
         <v>8</v>
       </c>
       <c r="I63" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>262</v>
+        <v>392</v>
       </c>
       <c r="C64" t="s">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>393</v>
+      </c>
+      <c r="E64" t="s">
+        <v>657</v>
       </c>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>762</v>
       </c>
       <c r="G64" t="s">
         <v>8</v>
@@ -3007,7 +4939,7 @@
         <v>8</v>
       </c>
       <c r="I64" t="s">
-        <v>73</v>
+        <v>892</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3015,25 +4947,28 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>394</v>
       </c>
       <c r="C65" t="s">
-        <v>267</v>
+        <v>395</v>
       </c>
       <c r="D65" t="s">
-        <v>268</v>
+        <v>396</v>
+      </c>
+      <c r="E65" t="s">
+        <v>658</v>
       </c>
       <c r="F65" t="s">
-        <v>269</v>
+        <v>763</v>
       </c>
       <c r="G65" t="s">
-        <v>270</v>
+        <v>8</v>
       </c>
       <c r="H65" t="s">
         <v>8</v>
       </c>
       <c r="I65" t="s">
-        <v>271</v>
+        <v>893</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3041,16 +4976,16 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>397</v>
       </c>
       <c r="C66" t="s">
-        <v>273</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s">
-        <v>274</v>
+        <v>398</v>
       </c>
       <c r="F66" t="s">
-        <v>275</v>
+        <v>397</v>
       </c>
       <c r="G66" t="s">
         <v>8</v>
@@ -3059,7 +4994,7 @@
         <v>8</v>
       </c>
       <c r="I66" t="s">
-        <v>276</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3067,16 +5002,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>277</v>
+        <v>399</v>
       </c>
       <c r="C67" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
+        <v>400</v>
+      </c>
+      <c r="E67" t="s">
+        <v>659</v>
       </c>
       <c r="F67" t="s">
-        <v>158</v>
+        <v>764</v>
       </c>
       <c r="G67" t="s">
         <v>8</v>
@@ -3085,7 +5023,7 @@
         <v>8</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>888</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3093,16 +5031,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="D68" t="s">
-        <v>281</v>
+        <v>402</v>
+      </c>
+      <c r="E68" t="s">
+        <v>660</v>
       </c>
       <c r="F68" t="s">
-        <v>282</v>
+        <v>765</v>
       </c>
       <c r="G68" t="s">
         <v>8</v>
@@ -3111,7 +5052,7 @@
         <v>8</v>
       </c>
       <c r="I68" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3119,16 +5060,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>284</v>
+        <v>403</v>
       </c>
       <c r="C69" t="s">
-        <v>285</v>
+        <v>404</v>
       </c>
       <c r="D69" t="s">
-        <v>286</v>
+        <v>405</v>
+      </c>
+      <c r="E69" t="s">
+        <v>661</v>
       </c>
       <c r="F69" t="s">
-        <v>287</v>
+        <v>766</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3137,7 +5081,7 @@
         <v>8</v>
       </c>
       <c r="I69" t="s">
-        <v>288</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3145,16 +5089,16 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>291</v>
+        <v>101</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>102</v>
       </c>
       <c r="G70" t="s">
         <v>8</v>
@@ -3163,7 +5107,7 @@
         <v>8</v>
       </c>
       <c r="I70" t="s">
-        <v>293</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3171,16 +5115,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="C71" t="s">
-        <v>295</v>
+        <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>296</v>
+        <v>407</v>
+      </c>
+      <c r="E71" t="s">
+        <v>662</v>
       </c>
       <c r="F71" t="s">
-        <v>297</v>
+        <v>732</v>
       </c>
       <c r="G71" t="s">
         <v>8</v>
@@ -3189,7 +5136,7 @@
         <v>8</v>
       </c>
       <c r="I71" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3197,16 +5144,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="D72" t="s">
-        <v>298</v>
+        <v>106</v>
+      </c>
+      <c r="E72" t="s">
+        <v>663</v>
       </c>
       <c r="F72" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="G72" t="s">
         <v>8</v>
@@ -3215,7 +5165,7 @@
         <v>8</v>
       </c>
       <c r="I72" t="s">
-        <v>300</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3223,16 +5173,16 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>303</v>
+        <v>408</v>
       </c>
       <c r="F73" t="s">
-        <v>304</v>
+        <v>767</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -3241,7 +5191,7 @@
         <v>8</v>
       </c>
       <c r="I73" t="s">
-        <v>305</v>
+        <v>894</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3249,36 +5199,4072 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>307</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
-        <v>308</v>
+        <v>109</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s">
         <v>8</v>
       </c>
       <c r="I74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
+        <v>409</v>
+      </c>
+      <c r="D75" t="s">
+        <v>410</v>
+      </c>
+      <c r="F75" t="s">
+        <v>768</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" t="s">
+        <v>411</v>
+      </c>
+      <c r="E76" t="s">
+        <v>664</v>
+      </c>
+      <c r="F76" t="s">
+        <v>769</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>412</v>
+      </c>
+      <c r="C77" t="s">
+        <v>413</v>
+      </c>
+      <c r="D77" t="s">
+        <v>414</v>
+      </c>
+      <c r="F77" t="s">
+        <v>770</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>415</v>
+      </c>
+      <c r="D78" t="s">
+        <v>416</v>
+      </c>
+      <c r="F78" t="s">
+        <v>771</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>417</v>
+      </c>
+      <c r="D79" t="s">
+        <v>418</v>
+      </c>
+      <c r="F79" t="s">
+        <v>772</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>343</v>
+      </c>
+      <c r="C80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" t="s">
+        <v>665</v>
+      </c>
+      <c r="F80" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
+        <v>419</v>
+      </c>
+      <c r="D81" t="s">
+        <v>420</v>
+      </c>
+      <c r="E81" t="s">
+        <v>666</v>
+      </c>
+      <c r="F81" t="s">
+        <v>773</v>
+      </c>
+      <c r="G81" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>114</v>
+      </c>
+      <c r="D82" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" t="s">
+        <v>667</v>
+      </c>
+      <c r="F82" t="s">
+        <v>116</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" t="s">
+        <v>421</v>
+      </c>
+      <c r="D83" t="s">
+        <v>422</v>
+      </c>
+      <c r="E83" t="s">
+        <v>668</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>423</v>
+      </c>
+      <c r="C84" t="s">
+        <v>424</v>
+      </c>
+      <c r="D84" t="s">
+        <v>425</v>
+      </c>
+      <c r="E84" t="s">
+        <v>669</v>
+      </c>
+      <c r="F84" t="s">
+        <v>774</v>
+      </c>
+      <c r="G84" t="s">
+        <v>775</v>
+      </c>
+      <c r="H84" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>426</v>
+      </c>
+      <c r="C85" t="s">
+        <v>427</v>
+      </c>
+      <c r="D85" t="s">
+        <v>428</v>
+      </c>
+      <c r="E85" t="s">
+        <v>670</v>
+      </c>
+      <c r="F85" t="s">
+        <v>776</v>
+      </c>
+      <c r="G85" t="s">
+        <v>777</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>429</v>
+      </c>
+      <c r="C86" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" t="s">
+        <v>430</v>
+      </c>
+      <c r="F86" t="s">
+        <v>724</v>
+      </c>
+      <c r="G86" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>431</v>
+      </c>
+      <c r="C87" t="s">
+        <v>432</v>
+      </c>
+      <c r="D87" t="s">
+        <v>433</v>
+      </c>
+      <c r="E87" t="s">
+        <v>671</v>
+      </c>
+      <c r="F87" t="s">
+        <v>778</v>
+      </c>
+      <c r="G87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" t="s">
+        <v>434</v>
+      </c>
+      <c r="F88" t="s">
+        <v>779</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>435</v>
+      </c>
+      <c r="D89" t="s">
+        <v>436</v>
+      </c>
+      <c r="F89" t="s">
+        <v>780</v>
+      </c>
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>437</v>
+      </c>
+      <c r="C90" t="s">
+        <v>114</v>
+      </c>
+      <c r="D90" t="s">
+        <v>436</v>
+      </c>
+      <c r="E90" t="s">
+        <v>672</v>
+      </c>
+      <c r="F90" t="s">
+        <v>780</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>438</v>
+      </c>
+      <c r="C91" t="s">
+        <v>439</v>
+      </c>
+      <c r="D91" t="s">
+        <v>440</v>
+      </c>
+      <c r="F91" t="s">
+        <v>781</v>
+      </c>
+      <c r="G91" t="s">
+        <v>782</v>
+      </c>
+      <c r="H91" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>441</v>
+      </c>
+      <c r="D92" t="s">
+        <v>442</v>
+      </c>
+      <c r="F92" t="s">
+        <v>783</v>
+      </c>
+      <c r="G92" t="s">
+        <v>784</v>
+      </c>
+      <c r="H92" t="s">
+        <v>785</v>
+      </c>
+      <c r="I92" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>293</v>
+      </c>
+      <c r="D93" t="s">
+        <v>443</v>
+      </c>
+      <c r="F93" t="s">
+        <v>786</v>
+      </c>
+      <c r="G93" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" t="s">
+        <v>121</v>
+      </c>
+      <c r="F94" t="s">
+        <v>66</v>
+      </c>
+      <c r="G94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" t="s">
+        <v>673</v>
+      </c>
+      <c r="F95" t="s">
+        <v>124</v>
+      </c>
+      <c r="G95" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>444</v>
+      </c>
+      <c r="C96" t="s">
+        <v>445</v>
+      </c>
+      <c r="D96" t="s">
+        <v>446</v>
+      </c>
+      <c r="F96" t="s">
+        <v>787</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>299</v>
+      </c>
+      <c r="C97" t="s">
+        <v>447</v>
+      </c>
+      <c r="D97" t="s">
+        <v>448</v>
+      </c>
+      <c r="F97" t="s">
+        <v>788</v>
+      </c>
+      <c r="G97" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" t="s">
+        <v>674</v>
+      </c>
+      <c r="F98" t="s">
+        <v>128</v>
+      </c>
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>449</v>
+      </c>
+      <c r="C99" t="s">
+        <v>450</v>
+      </c>
+      <c r="D99" t="s">
+        <v>451</v>
+      </c>
+      <c r="F99" t="s">
+        <v>789</v>
+      </c>
+      <c r="G99" t="s">
+        <v>790</v>
+      </c>
+      <c r="H99" t="s">
+        <v>791</v>
+      </c>
+      <c r="I99" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>293</v>
+      </c>
+      <c r="D100" t="s">
+        <v>452</v>
+      </c>
+      <c r="F100" t="s">
+        <v>792</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>453</v>
+      </c>
+      <c r="C101" t="s">
+        <v>454</v>
+      </c>
+      <c r="D101" t="s">
+        <v>455</v>
+      </c>
+      <c r="F101" t="s">
+        <v>793</v>
+      </c>
+      <c r="G101" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" t="s">
+        <v>132</v>
+      </c>
+      <c r="G102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>456</v>
+      </c>
+      <c r="D103" t="s">
+        <v>457</v>
+      </c>
+      <c r="F103" t="s">
+        <v>794</v>
+      </c>
+      <c r="G103" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>458</v>
+      </c>
+      <c r="C104" t="s">
+        <v>353</v>
+      </c>
+      <c r="D104" t="s">
+        <v>459</v>
+      </c>
+      <c r="F104" t="s">
+        <v>795</v>
+      </c>
+      <c r="G104" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" t="s">
+        <v>135</v>
+      </c>
+      <c r="D105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" t="s">
+        <v>137</v>
+      </c>
+      <c r="G105" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>460</v>
+      </c>
+      <c r="C106" t="s">
+        <v>461</v>
+      </c>
+      <c r="D106" t="s">
+        <v>462</v>
+      </c>
+      <c r="E106" t="s">
+        <v>675</v>
+      </c>
+      <c r="F106" t="s">
+        <v>796</v>
+      </c>
+      <c r="G106" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" t="s">
+        <v>143</v>
+      </c>
+      <c r="F107" t="s">
+        <v>144</v>
+      </c>
+      <c r="G107" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>463</v>
+      </c>
+      <c r="C108" t="s">
+        <v>464</v>
+      </c>
+      <c r="D108" t="s">
+        <v>465</v>
+      </c>
+      <c r="F108" t="s">
+        <v>797</v>
+      </c>
+      <c r="G108" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>466</v>
+      </c>
+      <c r="C109" t="s">
+        <v>467</v>
+      </c>
+      <c r="D109" t="s">
+        <v>468</v>
+      </c>
+      <c r="F109" t="s">
+        <v>52</v>
+      </c>
+      <c r="G109" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>469</v>
+      </c>
+      <c r="C110" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" t="s">
+        <v>470</v>
+      </c>
+      <c r="F110" t="s">
+        <v>798</v>
+      </c>
+      <c r="G110" t="s">
+        <v>799</v>
+      </c>
+      <c r="H110" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>471</v>
+      </c>
+      <c r="C111" t="s">
+        <v>87</v>
+      </c>
+      <c r="D111" t="s">
+        <v>472</v>
+      </c>
+      <c r="F111" t="s">
+        <v>774</v>
+      </c>
+      <c r="G111" t="s">
+        <v>775</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" t="s">
+        <v>146</v>
+      </c>
+      <c r="F112" t="s">
+        <v>147</v>
+      </c>
+      <c r="G112" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" t="s">
+        <v>146</v>
+      </c>
+      <c r="F113" t="s">
+        <v>149</v>
+      </c>
+      <c r="G113" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" t="s">
+        <v>473</v>
+      </c>
+      <c r="D114" t="s">
+        <v>474</v>
+      </c>
+      <c r="E114" t="s">
+        <v>676</v>
+      </c>
+      <c r="F114" t="s">
+        <v>800</v>
+      </c>
+      <c r="G114" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" t="s">
+        <v>151</v>
+      </c>
+      <c r="E115" t="s">
+        <v>677</v>
+      </c>
+      <c r="F115" t="s">
+        <v>152</v>
+      </c>
+      <c r="G115" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" t="s">
+        <v>678</v>
+      </c>
+      <c r="F116" t="s">
+        <v>801</v>
+      </c>
+      <c r="G116" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117" t="s">
+        <v>679</v>
+      </c>
+      <c r="F117" t="s">
+        <v>156</v>
+      </c>
+      <c r="G117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>475</v>
+      </c>
+      <c r="C118" t="s">
+        <v>364</v>
+      </c>
+      <c r="D118" t="s">
+        <v>476</v>
+      </c>
+      <c r="F118" t="s">
+        <v>802</v>
+      </c>
+      <c r="G118" t="s">
+        <v>803</v>
+      </c>
+      <c r="H118" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>477</v>
+      </c>
+      <c r="C119" t="s">
+        <v>478</v>
+      </c>
+      <c r="D119" t="s">
+        <v>479</v>
+      </c>
+      <c r="F119" t="s">
+        <v>804</v>
+      </c>
+      <c r="G119" t="s">
+        <v>805</v>
+      </c>
+      <c r="H119" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>480</v>
+      </c>
+      <c r="C120" t="s">
+        <v>481</v>
+      </c>
+      <c r="D120" t="s">
+        <v>482</v>
+      </c>
+      <c r="F120" t="s">
+        <v>806</v>
+      </c>
+      <c r="G120" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>483</v>
+      </c>
+      <c r="C121" t="s">
+        <v>484</v>
+      </c>
+      <c r="D121" t="s">
+        <v>485</v>
+      </c>
+      <c r="E121" t="s">
+        <v>680</v>
+      </c>
+      <c r="F121" t="s">
+        <v>139</v>
+      </c>
+      <c r="G121" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" t="s">
+        <v>681</v>
+      </c>
+      <c r="F122" t="s">
+        <v>159</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" t="s">
+        <v>8</v>
+      </c>
+      <c r="I122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>486</v>
+      </c>
+      <c r="C123" t="s">
+        <v>487</v>
+      </c>
+      <c r="D123" t="s">
+        <v>488</v>
+      </c>
+      <c r="F123" t="s">
+        <v>807</v>
+      </c>
+      <c r="G123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" t="s">
+        <v>8</v>
+      </c>
+      <c r="I123" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" t="s">
+        <v>489</v>
+      </c>
+      <c r="C124" t="s">
         <v>249</v>
+      </c>
+      <c r="D124" t="s">
+        <v>490</v>
+      </c>
+      <c r="F124" t="s">
+        <v>808</v>
+      </c>
+      <c r="G124" t="s">
+        <v>809</v>
+      </c>
+      <c r="H124" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" t="s">
+        <v>491</v>
+      </c>
+      <c r="D125" t="s">
+        <v>492</v>
+      </c>
+      <c r="F125" t="s">
+        <v>810</v>
+      </c>
+      <c r="G125" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" t="s">
+        <v>493</v>
+      </c>
+      <c r="D126" t="s">
+        <v>494</v>
+      </c>
+      <c r="F126" t="s">
+        <v>811</v>
+      </c>
+      <c r="G126" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>495</v>
+      </c>
+      <c r="C127" t="s">
+        <v>275</v>
+      </c>
+      <c r="D127" t="s">
+        <v>496</v>
+      </c>
+      <c r="E127" t="s">
+        <v>682</v>
+      </c>
+      <c r="F127" t="s">
+        <v>812</v>
+      </c>
+      <c r="G127" t="s">
+        <v>813</v>
+      </c>
+      <c r="H127" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>497</v>
+      </c>
+      <c r="C128" t="s">
+        <v>498</v>
+      </c>
+      <c r="D128" t="s">
+        <v>499</v>
+      </c>
+      <c r="F128" t="s">
+        <v>814</v>
+      </c>
+      <c r="G128" t="s">
+        <v>128</v>
+      </c>
+      <c r="H128" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" t="s">
+        <v>161</v>
+      </c>
+      <c r="D129" t="s">
+        <v>162</v>
+      </c>
+      <c r="E129" t="s">
+        <v>683</v>
+      </c>
+      <c r="F129" t="s">
+        <v>163</v>
+      </c>
+      <c r="G129" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" t="s">
+        <v>161</v>
+      </c>
+      <c r="D130" t="s">
+        <v>500</v>
+      </c>
+      <c r="E130" t="s">
+        <v>684</v>
+      </c>
+      <c r="F130" t="s">
+        <v>815</v>
+      </c>
+      <c r="G130" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>165</v>
+      </c>
+      <c r="C131" t="s">
+        <v>166</v>
+      </c>
+      <c r="D131" t="s">
+        <v>167</v>
+      </c>
+      <c r="F131" t="s">
+        <v>168</v>
+      </c>
+      <c r="G131" t="s">
+        <v>169</v>
+      </c>
+      <c r="H131" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>501</v>
+      </c>
+      <c r="C132" t="s">
+        <v>502</v>
+      </c>
+      <c r="D132" t="s">
+        <v>503</v>
+      </c>
+      <c r="E132" t="s">
+        <v>685</v>
+      </c>
+      <c r="F132" t="s">
+        <v>764</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>170</v>
+      </c>
+      <c r="C133" t="s">
+        <v>100</v>
+      </c>
+      <c r="D133" t="s">
+        <v>171</v>
+      </c>
+      <c r="F133" t="s">
+        <v>172</v>
+      </c>
+      <c r="G133" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>504</v>
+      </c>
+      <c r="C134" t="s">
+        <v>505</v>
+      </c>
+      <c r="D134" t="s">
+        <v>506</v>
+      </c>
+      <c r="F134" t="s">
+        <v>816</v>
+      </c>
+      <c r="G134" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>507</v>
+      </c>
+      <c r="C135" t="s">
+        <v>508</v>
+      </c>
+      <c r="D135" t="s">
+        <v>509</v>
+      </c>
+      <c r="F135" t="s">
+        <v>817</v>
+      </c>
+      <c r="G135" t="s">
+        <v>818</v>
+      </c>
+      <c r="H135" t="s">
+        <v>819</v>
+      </c>
+      <c r="I135" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" t="s">
+        <v>510</v>
+      </c>
+      <c r="D136" t="s">
+        <v>511</v>
+      </c>
+      <c r="F136" t="s">
+        <v>804</v>
+      </c>
+      <c r="G136" t="s">
+        <v>820</v>
+      </c>
+      <c r="H136" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" t="s">
+        <v>174</v>
+      </c>
+      <c r="D137" t="s">
+        <v>175</v>
+      </c>
+      <c r="E137" t="s">
+        <v>686</v>
+      </c>
+      <c r="F137" t="s">
+        <v>176</v>
+      </c>
+      <c r="G137" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>512</v>
+      </c>
+      <c r="C138" t="s">
+        <v>513</v>
+      </c>
+      <c r="D138" t="s">
+        <v>514</v>
+      </c>
+      <c r="F138" t="s">
+        <v>735</v>
+      </c>
+      <c r="G138" t="s">
+        <v>736</v>
+      </c>
+      <c r="H138" t="s">
+        <v>737</v>
+      </c>
+      <c r="I138" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" t="s">
+        <v>95</v>
+      </c>
+      <c r="D139" t="s">
+        <v>178</v>
+      </c>
+      <c r="E139" t="s">
+        <v>687</v>
+      </c>
+      <c r="F139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G139" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" t="s">
+        <v>8</v>
+      </c>
+      <c r="I139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>515</v>
+      </c>
+      <c r="C140" t="s">
+        <v>516</v>
+      </c>
+      <c r="D140" t="s">
+        <v>517</v>
+      </c>
+      <c r="F140" t="s">
+        <v>821</v>
+      </c>
+      <c r="G140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" t="s">
+        <v>518</v>
+      </c>
+      <c r="D141" t="s">
+        <v>519</v>
+      </c>
+      <c r="E141" t="s">
+        <v>688</v>
+      </c>
+      <c r="F141" t="s">
+        <v>822</v>
+      </c>
+      <c r="G141" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>520</v>
+      </c>
+      <c r="C142" t="s">
+        <v>521</v>
+      </c>
+      <c r="D142" t="s">
+        <v>522</v>
+      </c>
+      <c r="E142" t="s">
+        <v>689</v>
+      </c>
+      <c r="F142" t="s">
+        <v>823</v>
+      </c>
+      <c r="G142" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>523</v>
+      </c>
+      <c r="C143" t="s">
+        <v>524</v>
+      </c>
+      <c r="D143" t="s">
+        <v>525</v>
+      </c>
+      <c r="E143" t="s">
+        <v>690</v>
+      </c>
+      <c r="F143" t="s">
+        <v>816</v>
+      </c>
+      <c r="G143" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>526</v>
+      </c>
+      <c r="C144" t="s">
+        <v>527</v>
+      </c>
+      <c r="D144" t="s">
+        <v>528</v>
+      </c>
+      <c r="F144" t="s">
+        <v>766</v>
+      </c>
+      <c r="G144" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" t="s">
+        <v>529</v>
+      </c>
+      <c r="D145" t="s">
+        <v>530</v>
+      </c>
+      <c r="F145" t="s">
+        <v>824</v>
+      </c>
+      <c r="G145" t="s">
+        <v>825</v>
+      </c>
+      <c r="H145" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>531</v>
+      </c>
+      <c r="C146" t="s">
+        <v>181</v>
+      </c>
+      <c r="D146" t="s">
+        <v>182</v>
+      </c>
+      <c r="F146" t="s">
+        <v>183</v>
+      </c>
+      <c r="G146" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" t="s">
+        <v>532</v>
+      </c>
+      <c r="C147" t="s">
+        <v>226</v>
+      </c>
+      <c r="D147" t="s">
+        <v>533</v>
+      </c>
+      <c r="F147" t="s">
+        <v>826</v>
+      </c>
+      <c r="G147" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>534</v>
+      </c>
+      <c r="C148" t="s">
+        <v>535</v>
+      </c>
+      <c r="D148" t="s">
+        <v>536</v>
+      </c>
+      <c r="F148" t="s">
+        <v>801</v>
+      </c>
+      <c r="G148" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>184</v>
+      </c>
+      <c r="C149" t="s">
+        <v>185</v>
+      </c>
+      <c r="D149" t="s">
+        <v>186</v>
+      </c>
+      <c r="F149" t="s">
+        <v>187</v>
+      </c>
+      <c r="G149" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" t="s">
+        <v>189</v>
+      </c>
+      <c r="D150" t="s">
+        <v>190</v>
+      </c>
+      <c r="E150" t="s">
+        <v>691</v>
+      </c>
+      <c r="F150" t="s">
+        <v>191</v>
+      </c>
+      <c r="G150" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>299</v>
+      </c>
+      <c r="C151" t="s">
+        <v>87</v>
+      </c>
+      <c r="D151" t="s">
+        <v>537</v>
+      </c>
+      <c r="E151" t="s">
+        <v>692</v>
+      </c>
+      <c r="F151" t="s">
+        <v>827</v>
+      </c>
+      <c r="G151" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" t="s">
+        <v>538</v>
+      </c>
+      <c r="D152" t="s">
+        <v>539</v>
+      </c>
+      <c r="E152" t="s">
+        <v>693</v>
+      </c>
+      <c r="F152" t="s">
+        <v>734</v>
+      </c>
+      <c r="G152" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>540</v>
+      </c>
+      <c r="B153" t="s">
+        <v>541</v>
+      </c>
+      <c r="C153" t="s">
+        <v>193</v>
+      </c>
+      <c r="D153" t="s">
+        <v>542</v>
+      </c>
+      <c r="E153" t="s">
+        <v>694</v>
+      </c>
+      <c r="F153" t="s">
+        <v>828</v>
+      </c>
+      <c r="G153" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>543</v>
+      </c>
+      <c r="C154" t="s">
+        <v>544</v>
+      </c>
+      <c r="D154" t="s">
+        <v>545</v>
+      </c>
+      <c r="F154" t="s">
+        <v>829</v>
+      </c>
+      <c r="G154" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" t="s">
+        <v>8</v>
+      </c>
+      <c r="I154" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>343</v>
+      </c>
+      <c r="C155" t="s">
+        <v>193</v>
+      </c>
+      <c r="D155" t="s">
+        <v>194</v>
+      </c>
+      <c r="F155" t="s">
+        <v>195</v>
+      </c>
+      <c r="G155" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>546</v>
+      </c>
+      <c r="C156" t="s">
+        <v>513</v>
+      </c>
+      <c r="D156" t="s">
+        <v>547</v>
+      </c>
+      <c r="E156" t="s">
+        <v>695</v>
+      </c>
+      <c r="F156" t="s">
+        <v>764</v>
+      </c>
+      <c r="G156" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157" t="s">
+        <v>87</v>
+      </c>
+      <c r="D157" t="s">
+        <v>197</v>
+      </c>
+      <c r="E157" t="s">
+        <v>696</v>
+      </c>
+      <c r="F157" t="s">
+        <v>198</v>
+      </c>
+      <c r="G157" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" t="s">
+        <v>538</v>
+      </c>
+      <c r="D158" t="s">
+        <v>197</v>
+      </c>
+      <c r="E158" t="s">
+        <v>697</v>
+      </c>
+      <c r="F158" t="s">
+        <v>830</v>
+      </c>
+      <c r="G158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159" t="s">
+        <v>548</v>
+      </c>
+      <c r="D159" t="s">
+        <v>549</v>
+      </c>
+      <c r="F159" t="s">
+        <v>831</v>
+      </c>
+      <c r="G159" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>55</v>
+      </c>
+      <c r="C160" t="s">
+        <v>200</v>
+      </c>
+      <c r="D160" t="s">
+        <v>201</v>
+      </c>
+      <c r="F160" t="s">
+        <v>202</v>
+      </c>
+      <c r="G160" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>55</v>
+      </c>
+      <c r="C161" t="s">
+        <v>550</v>
+      </c>
+      <c r="D161" t="s">
+        <v>551</v>
+      </c>
+      <c r="F161" t="s">
+        <v>832</v>
+      </c>
+      <c r="G161" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" t="s">
+        <v>204</v>
+      </c>
+      <c r="C162" t="s">
+        <v>205</v>
+      </c>
+      <c r="D162" t="s">
+        <v>206</v>
+      </c>
+      <c r="E162" t="s">
+        <v>698</v>
+      </c>
+      <c r="F162" t="s">
+        <v>207</v>
+      </c>
+      <c r="G162" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" t="s">
+        <v>552</v>
+      </c>
+      <c r="D163" t="s">
+        <v>553</v>
+      </c>
+      <c r="F163" t="s">
+        <v>833</v>
+      </c>
+      <c r="G163" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>209</v>
+      </c>
+      <c r="C164" t="s">
+        <v>210</v>
+      </c>
+      <c r="D164" t="s">
+        <v>211</v>
+      </c>
+      <c r="F164" t="s">
+        <v>156</v>
+      </c>
+      <c r="G164" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>554</v>
+      </c>
+      <c r="C165" t="s">
+        <v>212</v>
+      </c>
+      <c r="D165" t="s">
+        <v>213</v>
+      </c>
+      <c r="F165" t="s">
+        <v>214</v>
+      </c>
+      <c r="G165" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>216</v>
+      </c>
+      <c r="C166" t="s">
+        <v>217</v>
+      </c>
+      <c r="D166" t="s">
+        <v>218</v>
+      </c>
+      <c r="E166" t="s">
+        <v>699</v>
+      </c>
+      <c r="F166" t="s">
+        <v>219</v>
+      </c>
+      <c r="G166" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>221</v>
+      </c>
+      <c r="C167" t="s">
+        <v>222</v>
+      </c>
+      <c r="D167" t="s">
+        <v>218</v>
+      </c>
+      <c r="F167" t="s">
+        <v>223</v>
+      </c>
+      <c r="G167" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" t="s">
+        <v>8</v>
+      </c>
+      <c r="I167" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" t="s">
+        <v>555</v>
+      </c>
+      <c r="D168" t="s">
+        <v>218</v>
+      </c>
+      <c r="F168" t="s">
+        <v>834</v>
+      </c>
+      <c r="G168" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>55</v>
+      </c>
+      <c r="C169" t="s">
+        <v>556</v>
+      </c>
+      <c r="D169" t="s">
+        <v>557</v>
+      </c>
+      <c r="F169" t="s">
+        <v>835</v>
+      </c>
+      <c r="G169" t="s">
+        <v>836</v>
+      </c>
+      <c r="H169" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>225</v>
+      </c>
+      <c r="C170" t="s">
+        <v>226</v>
+      </c>
+      <c r="D170" t="s">
+        <v>227</v>
+      </c>
+      <c r="E170" t="s">
+        <v>700</v>
+      </c>
+      <c r="F170" t="s">
+        <v>228</v>
+      </c>
+      <c r="G170" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" t="s">
+        <v>8</v>
+      </c>
+      <c r="I170" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" t="s">
+        <v>558</v>
+      </c>
+      <c r="D171" t="s">
+        <v>559</v>
+      </c>
+      <c r="E171" t="s">
+        <v>701</v>
+      </c>
+      <c r="F171" t="s">
+        <v>837</v>
+      </c>
+      <c r="G171" t="s">
+        <v>838</v>
+      </c>
+      <c r="H171" t="s">
+        <v>8</v>
+      </c>
+      <c r="I171" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>560</v>
+      </c>
+      <c r="C172" t="s">
+        <v>212</v>
+      </c>
+      <c r="D172" t="s">
+        <v>561</v>
+      </c>
+      <c r="F172" t="s">
+        <v>839</v>
+      </c>
+      <c r="G172" t="s">
+        <v>840</v>
+      </c>
+      <c r="H172" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>54</v>
+      </c>
+      <c r="B173" t="s">
+        <v>480</v>
+      </c>
+      <c r="C173" t="s">
+        <v>562</v>
+      </c>
+      <c r="D173" t="s">
+        <v>563</v>
+      </c>
+      <c r="E173" t="s">
+        <v>702</v>
+      </c>
+      <c r="F173" t="s">
+        <v>828</v>
+      </c>
+      <c r="G173" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>564</v>
+      </c>
+      <c r="C174" t="s">
+        <v>293</v>
+      </c>
+      <c r="D174" t="s">
+        <v>565</v>
+      </c>
+      <c r="F174" t="s">
+        <v>841</v>
+      </c>
+      <c r="G174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" t="s">
+        <v>8</v>
+      </c>
+      <c r="I174" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>225</v>
+      </c>
+      <c r="C175" t="s">
+        <v>566</v>
+      </c>
+      <c r="D175" t="s">
+        <v>567</v>
+      </c>
+      <c r="F175" t="s">
+        <v>842</v>
+      </c>
+      <c r="G175" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" t="s">
+        <v>8</v>
+      </c>
+      <c r="I175" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>55</v>
+      </c>
+      <c r="C176" t="s">
+        <v>374</v>
+      </c>
+      <c r="D176" t="s">
+        <v>568</v>
+      </c>
+      <c r="E176" t="s">
+        <v>703</v>
+      </c>
+      <c r="F176" t="s">
+        <v>843</v>
+      </c>
+      <c r="G176" t="s">
+        <v>844</v>
+      </c>
+      <c r="H176" t="s">
+        <v>8</v>
+      </c>
+      <c r="I176" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>55</v>
+      </c>
+      <c r="C177" t="s">
+        <v>230</v>
+      </c>
+      <c r="D177" t="s">
+        <v>231</v>
+      </c>
+      <c r="F177" t="s">
+        <v>232</v>
+      </c>
+      <c r="G177" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" t="s">
+        <v>8</v>
+      </c>
+      <c r="I177" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" t="s">
+        <v>569</v>
+      </c>
+      <c r="D178" t="s">
+        <v>570</v>
+      </c>
+      <c r="F178" t="s">
+        <v>845</v>
+      </c>
+      <c r="G178" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" t="s">
+        <v>8</v>
+      </c>
+      <c r="I178" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" t="s">
+        <v>185</v>
+      </c>
+      <c r="D179" t="s">
+        <v>234</v>
+      </c>
+      <c r="F179" t="s">
+        <v>235</v>
+      </c>
+      <c r="G179" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" t="s">
+        <v>8</v>
+      </c>
+      <c r="I179" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>571</v>
+      </c>
+      <c r="C180" t="s">
+        <v>419</v>
+      </c>
+      <c r="D180" t="s">
+        <v>572</v>
+      </c>
+      <c r="F180" t="s">
+        <v>846</v>
+      </c>
+      <c r="G180" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" t="s">
+        <v>8</v>
+      </c>
+      <c r="I180" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>573</v>
+      </c>
+      <c r="C181" t="s">
+        <v>562</v>
+      </c>
+      <c r="D181" t="s">
+        <v>574</v>
+      </c>
+      <c r="F181" t="s">
+        <v>847</v>
+      </c>
+      <c r="G181" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" t="s">
+        <v>8</v>
+      </c>
+      <c r="I181" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>575</v>
+      </c>
+      <c r="C182" t="s">
+        <v>293</v>
+      </c>
+      <c r="D182" t="s">
+        <v>576</v>
+      </c>
+      <c r="E182" t="s">
+        <v>704</v>
+      </c>
+      <c r="F182" t="s">
+        <v>848</v>
+      </c>
+      <c r="G182" t="s">
+        <v>849</v>
+      </c>
+      <c r="H182" t="s">
+        <v>8</v>
+      </c>
+      <c r="I182" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>577</v>
+      </c>
+      <c r="C183" t="s">
+        <v>293</v>
+      </c>
+      <c r="D183" t="s">
+        <v>578</v>
+      </c>
+      <c r="F183" t="s">
+        <v>850</v>
+      </c>
+      <c r="G183" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" t="s">
+        <v>8</v>
+      </c>
+      <c r="I183" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" t="s">
+        <v>579</v>
+      </c>
+      <c r="D184" t="s">
+        <v>580</v>
+      </c>
+      <c r="F184" t="s">
+        <v>851</v>
+      </c>
+      <c r="G184" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" t="s">
+        <v>8</v>
+      </c>
+      <c r="I184" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>54</v>
+      </c>
+      <c r="B185" t="s">
+        <v>554</v>
+      </c>
+      <c r="C185" t="s">
+        <v>237</v>
+      </c>
+      <c r="D185" t="s">
+        <v>238</v>
+      </c>
+      <c r="E185" t="s">
+        <v>705</v>
+      </c>
+      <c r="F185" t="s">
+        <v>239</v>
+      </c>
+      <c r="G185" t="s">
+        <v>8</v>
+      </c>
+      <c r="H185" t="s">
+        <v>8</v>
+      </c>
+      <c r="I185" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>119</v>
+      </c>
+      <c r="C186" t="s">
+        <v>364</v>
+      </c>
+      <c r="D186" t="s">
+        <v>581</v>
+      </c>
+      <c r="F186" t="s">
+        <v>852</v>
+      </c>
+      <c r="G186" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186" t="s">
+        <v>8</v>
+      </c>
+      <c r="I186" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>240</v>
+      </c>
+      <c r="C187" t="s">
+        <v>241</v>
+      </c>
+      <c r="D187" t="s">
+        <v>242</v>
+      </c>
+      <c r="F187" t="s">
+        <v>243</v>
+      </c>
+      <c r="G187" t="s">
+        <v>8</v>
+      </c>
+      <c r="H187" t="s">
+        <v>8</v>
+      </c>
+      <c r="I187" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
+        <v>244</v>
+      </c>
+      <c r="C188" t="s">
+        <v>245</v>
+      </c>
+      <c r="D188" t="s">
+        <v>246</v>
+      </c>
+      <c r="F188" t="s">
+        <v>247</v>
+      </c>
+      <c r="G188" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" t="s">
+        <v>8</v>
+      </c>
+      <c r="I188" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" t="s">
+        <v>248</v>
+      </c>
+      <c r="C189" t="s">
+        <v>249</v>
+      </c>
+      <c r="D189" t="s">
+        <v>250</v>
+      </c>
+      <c r="E189" t="s">
+        <v>706</v>
+      </c>
+      <c r="F189" t="s">
+        <v>853</v>
+      </c>
+      <c r="G189" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" t="s">
+        <v>8</v>
+      </c>
+      <c r="I189" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>55</v>
+      </c>
+      <c r="C190" t="s">
+        <v>582</v>
+      </c>
+      <c r="D190" t="s">
+        <v>583</v>
+      </c>
+      <c r="F190" t="s">
+        <v>854</v>
+      </c>
+      <c r="G190" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" t="s">
+        <v>8</v>
+      </c>
+      <c r="I190" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>328</v>
+      </c>
+      <c r="C191" t="s">
+        <v>584</v>
+      </c>
+      <c r="D191" t="s">
+        <v>585</v>
+      </c>
+      <c r="F191" t="s">
+        <v>735</v>
+      </c>
+      <c r="G191" t="s">
+        <v>736</v>
+      </c>
+      <c r="H191" t="s">
+        <v>737</v>
+      </c>
+      <c r="I191" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>252</v>
+      </c>
+      <c r="C192" t="s">
+        <v>253</v>
+      </c>
+      <c r="D192" t="s">
+        <v>254</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F192" t="s">
+        <v>255</v>
+      </c>
+      <c r="G192" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" t="s">
+        <v>8</v>
+      </c>
+      <c r="I192" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>257</v>
+      </c>
+      <c r="C193" t="s">
+        <v>258</v>
+      </c>
+      <c r="D193" t="s">
+        <v>259</v>
+      </c>
+      <c r="F193" t="s">
+        <v>144</v>
+      </c>
+      <c r="G193" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" t="s">
+        <v>8</v>
+      </c>
+      <c r="I193" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>586</v>
+      </c>
+      <c r="C194" t="s">
+        <v>587</v>
+      </c>
+      <c r="D194" t="s">
+        <v>588</v>
+      </c>
+      <c r="F194" t="s">
+        <v>845</v>
+      </c>
+      <c r="G194" t="s">
+        <v>8</v>
+      </c>
+      <c r="H194" t="s">
+        <v>8</v>
+      </c>
+      <c r="I194" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>55</v>
+      </c>
+      <c r="C195" t="s">
+        <v>260</v>
+      </c>
+      <c r="D195" t="s">
+        <v>261</v>
+      </c>
+      <c r="E195" t="s">
+        <v>708</v>
+      </c>
+      <c r="F195" t="s">
+        <v>262</v>
+      </c>
+      <c r="G195" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" t="s">
+        <v>8</v>
+      </c>
+      <c r="I195" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>589</v>
+      </c>
+      <c r="C196" t="s">
+        <v>590</v>
+      </c>
+      <c r="D196" t="s">
+        <v>591</v>
+      </c>
+      <c r="F196" t="s">
+        <v>855</v>
+      </c>
+      <c r="G196" t="s">
+        <v>8</v>
+      </c>
+      <c r="H196" t="s">
+        <v>8</v>
+      </c>
+      <c r="I196" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s">
+        <v>592</v>
+      </c>
+      <c r="C197" t="s">
+        <v>521</v>
+      </c>
+      <c r="D197" t="s">
+        <v>593</v>
+      </c>
+      <c r="E197" t="s">
+        <v>709</v>
+      </c>
+      <c r="F197" t="s">
+        <v>856</v>
+      </c>
+      <c r="G197" t="s">
+        <v>8</v>
+      </c>
+      <c r="H197" t="s">
+        <v>8</v>
+      </c>
+      <c r="I197" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" t="s">
+        <v>521</v>
+      </c>
+      <c r="D198" t="s">
+        <v>594</v>
+      </c>
+      <c r="E198" t="s">
+        <v>710</v>
+      </c>
+      <c r="F198" t="s">
+        <v>856</v>
+      </c>
+      <c r="G198" t="s">
+        <v>8</v>
+      </c>
+      <c r="H198" t="s">
+        <v>8</v>
+      </c>
+      <c r="I198" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199" t="s">
+        <v>100</v>
+      </c>
+      <c r="D199" t="s">
+        <v>353</v>
+      </c>
+      <c r="F199" t="s">
+        <v>857</v>
+      </c>
+      <c r="G199" t="s">
+        <v>8</v>
+      </c>
+      <c r="H199" t="s">
+        <v>8</v>
+      </c>
+      <c r="I199" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" t="s">
+        <v>595</v>
+      </c>
+      <c r="C200" t="s">
+        <v>596</v>
+      </c>
+      <c r="D200" t="s">
+        <v>597</v>
+      </c>
+      <c r="F200" t="s">
+        <v>858</v>
+      </c>
+      <c r="G200" t="s">
+        <v>8</v>
+      </c>
+      <c r="H200" t="s">
+        <v>8</v>
+      </c>
+      <c r="I200" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>264</v>
+      </c>
+      <c r="C201" t="s">
+        <v>265</v>
+      </c>
+      <c r="D201" t="s">
+        <v>266</v>
+      </c>
+      <c r="E201" t="s">
+        <v>711</v>
+      </c>
+      <c r="F201" t="s">
+        <v>267</v>
+      </c>
+      <c r="G201" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" t="s">
+        <v>8</v>
+      </c>
+      <c r="I201" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>598</v>
+      </c>
+      <c r="C202" t="s">
+        <v>249</v>
+      </c>
+      <c r="D202" t="s">
+        <v>599</v>
+      </c>
+      <c r="F202" t="s">
+        <v>832</v>
+      </c>
+      <c r="G202" t="s">
+        <v>8</v>
+      </c>
+      <c r="H202" t="s">
+        <v>8</v>
+      </c>
+      <c r="I202" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" t="s">
+        <v>343</v>
+      </c>
+      <c r="C203" t="s">
+        <v>600</v>
+      </c>
+      <c r="D203" t="s">
+        <v>601</v>
+      </c>
+      <c r="E203" t="s">
+        <v>943</v>
+      </c>
+      <c r="F203" t="s">
+        <v>859</v>
+      </c>
+      <c r="G203" t="s">
+        <v>8</v>
+      </c>
+      <c r="H203" t="s">
+        <v>8</v>
+      </c>
+      <c r="I203" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" t="s">
+        <v>24</v>
+      </c>
+      <c r="C204" t="s">
+        <v>95</v>
+      </c>
+      <c r="D204" t="s">
+        <v>602</v>
+      </c>
+      <c r="F204" t="s">
+        <v>860</v>
+      </c>
+      <c r="G204" t="s">
+        <v>8</v>
+      </c>
+      <c r="H204" t="s">
+        <v>8</v>
+      </c>
+      <c r="I204" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>54</v>
+      </c>
+      <c r="B205" t="s">
+        <v>603</v>
+      </c>
+      <c r="C205" t="s">
+        <v>604</v>
+      </c>
+      <c r="D205" t="s">
+        <v>605</v>
+      </c>
+      <c r="F205" t="s">
+        <v>779</v>
+      </c>
+      <c r="G205" t="s">
+        <v>8</v>
+      </c>
+      <c r="H205" t="s">
+        <v>8</v>
+      </c>
+      <c r="I205" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" t="s">
+        <v>269</v>
+      </c>
+      <c r="C206" t="s">
+        <v>270</v>
+      </c>
+      <c r="D206" t="s">
+        <v>271</v>
+      </c>
+      <c r="E206" t="s">
+        <v>712</v>
+      </c>
+      <c r="F206" t="s">
+        <v>272</v>
+      </c>
+      <c r="G206" t="s">
+        <v>8</v>
+      </c>
+      <c r="H206" t="s">
+        <v>8</v>
+      </c>
+      <c r="I206" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>24</v>
+      </c>
+      <c r="C207" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" t="s">
+        <v>606</v>
+      </c>
+      <c r="F207" t="s">
+        <v>861</v>
+      </c>
+      <c r="G207" t="s">
+        <v>8</v>
+      </c>
+      <c r="H207" t="s">
+        <v>8</v>
+      </c>
+      <c r="I207" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
+        <v>607</v>
+      </c>
+      <c r="C208" t="s">
+        <v>382</v>
+      </c>
+      <c r="D208" t="s">
+        <v>608</v>
+      </c>
+      <c r="E208" t="s">
+        <v>713</v>
+      </c>
+      <c r="F208" t="s">
+        <v>766</v>
+      </c>
+      <c r="G208" t="s">
+        <v>8</v>
+      </c>
+      <c r="H208" t="s">
+        <v>8</v>
+      </c>
+      <c r="I208" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" t="s">
+        <v>609</v>
+      </c>
+      <c r="C209" t="s">
+        <v>610</v>
+      </c>
+      <c r="D209" t="s">
+        <v>611</v>
+      </c>
+      <c r="F209" t="s">
+        <v>862</v>
+      </c>
+      <c r="G209" t="s">
+        <v>8</v>
+      </c>
+      <c r="H209" t="s">
+        <v>8</v>
+      </c>
+      <c r="I209" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>274</v>
+      </c>
+      <c r="C210" t="s">
+        <v>275</v>
+      </c>
+      <c r="D210" t="s">
+        <v>276</v>
+      </c>
+      <c r="E210" t="s">
+        <v>714</v>
+      </c>
+      <c r="F210" t="s">
+        <v>277</v>
+      </c>
+      <c r="G210" t="s">
+        <v>8</v>
+      </c>
+      <c r="H210" t="s">
+        <v>8</v>
+      </c>
+      <c r="I210" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>612</v>
+      </c>
+      <c r="C211" t="s">
+        <v>513</v>
+      </c>
+      <c r="D211" t="s">
+        <v>613</v>
+      </c>
+      <c r="F211" t="s">
+        <v>863</v>
+      </c>
+      <c r="G211" t="s">
+        <v>8</v>
+      </c>
+      <c r="H211" t="s">
+        <v>8</v>
+      </c>
+      <c r="I211" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212" t="s">
+        <v>161</v>
+      </c>
+      <c r="D212" t="s">
+        <v>278</v>
+      </c>
+      <c r="F212" t="s">
+        <v>279</v>
+      </c>
+      <c r="G212" t="s">
+        <v>8</v>
+      </c>
+      <c r="H212" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" t="s">
+        <v>614</v>
+      </c>
+      <c r="C213" t="s">
+        <v>615</v>
+      </c>
+      <c r="D213" t="s">
+        <v>616</v>
+      </c>
+      <c r="E213" t="s">
+        <v>715</v>
+      </c>
+      <c r="F213" t="s">
+        <v>864</v>
+      </c>
+      <c r="G213" t="s">
+        <v>8</v>
+      </c>
+      <c r="H213" t="s">
+        <v>8</v>
+      </c>
+      <c r="I213" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" t="s">
+        <v>617</v>
+      </c>
+      <c r="C214" t="s">
+        <v>518</v>
+      </c>
+      <c r="D214" t="s">
+        <v>618</v>
+      </c>
+      <c r="F214" t="s">
+        <v>865</v>
+      </c>
+      <c r="G214" t="s">
+        <v>866</v>
+      </c>
+      <c r="H214" t="s">
+        <v>8</v>
+      </c>
+      <c r="I214" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" t="s">
+        <v>24</v>
+      </c>
+      <c r="C215" t="s">
+        <v>619</v>
+      </c>
+      <c r="D215" t="s">
+        <v>620</v>
+      </c>
+      <c r="F215" t="s">
+        <v>867</v>
+      </c>
+      <c r="G215" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" t="s">
+        <v>8</v>
+      </c>
+      <c r="I215" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>55</v>
+      </c>
+      <c r="C216" t="s">
+        <v>521</v>
+      </c>
+      <c r="D216" t="s">
+        <v>621</v>
+      </c>
+      <c r="F216" t="s">
+        <v>868</v>
+      </c>
+      <c r="G216" t="s">
+        <v>8</v>
+      </c>
+      <c r="H216" t="s">
+        <v>8</v>
+      </c>
+      <c r="I216" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" t="s">
+        <v>24</v>
+      </c>
+      <c r="C217" t="s">
+        <v>78</v>
+      </c>
+      <c r="D217" t="s">
+        <v>622</v>
+      </c>
+      <c r="E217" t="s">
+        <v>716</v>
+      </c>
+      <c r="F217" t="s">
+        <v>869</v>
+      </c>
+      <c r="G217" t="s">
+        <v>8</v>
+      </c>
+      <c r="H217" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" t="s">
+        <v>520</v>
+      </c>
+      <c r="C218" t="s">
+        <v>623</v>
+      </c>
+      <c r="D218" t="s">
+        <v>624</v>
+      </c>
+      <c r="F218" t="s">
+        <v>732</v>
+      </c>
+      <c r="G218" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219" t="s">
+        <v>60</v>
+      </c>
+      <c r="D219" t="s">
+        <v>625</v>
+      </c>
+      <c r="F219" t="s">
+        <v>870</v>
+      </c>
+      <c r="G219" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" t="s">
+        <v>8</v>
+      </c>
+      <c r="I219" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>540</v>
+      </c>
+      <c r="B220" t="s">
+        <v>626</v>
+      </c>
+      <c r="C220" t="s">
+        <v>513</v>
+      </c>
+      <c r="D220" t="s">
+        <v>627</v>
+      </c>
+      <c r="E220" t="s">
+        <v>717</v>
+      </c>
+      <c r="F220" t="s">
+        <v>871</v>
+      </c>
+      <c r="G220" t="s">
+        <v>8</v>
+      </c>
+      <c r="H220" t="s">
+        <v>8</v>
+      </c>
+      <c r="I220" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" t="s">
+        <v>281</v>
+      </c>
+      <c r="C221" t="s">
+        <v>282</v>
+      </c>
+      <c r="D221" t="s">
+        <v>283</v>
+      </c>
+      <c r="F221" t="s">
+        <v>284</v>
+      </c>
+      <c r="G221" t="s">
+        <v>8</v>
+      </c>
+      <c r="H221" t="s">
+        <v>8</v>
+      </c>
+      <c r="I221" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222" t="s">
+        <v>628</v>
+      </c>
+      <c r="C222" t="s">
+        <v>629</v>
+      </c>
+      <c r="D222" t="s">
+        <v>630</v>
+      </c>
+      <c r="F222" t="s">
+        <v>848</v>
+      </c>
+      <c r="G222" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" t="s">
+        <v>8</v>
+      </c>
+      <c r="I222" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" t="s">
+        <v>631</v>
+      </c>
+      <c r="C223" t="s">
+        <v>287</v>
+      </c>
+      <c r="D223" t="s">
+        <v>288</v>
+      </c>
+      <c r="F223" t="s">
+        <v>289</v>
+      </c>
+      <c r="G223" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" t="s">
+        <v>8</v>
+      </c>
+      <c r="I223" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E11" r:id="rId4"/>
-    <hyperlink ref="E19" r:id="rId5"/>
-    <hyperlink ref="E21" r:id="rId6"/>
-    <hyperlink ref="E26" r:id="rId7"/>
+    <hyperlink ref="E192" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
